--- a/apple-dcf.xlsx
+++ b/apple-dcf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michellelee/Dropbox (InsideSherpa)/InsideSherpa team folder/Virtual internship partnerships/Banks and IB's/JPMorgan/IBD/Onboarding/IB Phase 2 content/Task 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="266" documentId="13_ncr:1_{D497A6B4-1D83-BD47-A084-8E9393B95CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBFBEEC7-2181-41E5-9173-636A5802DB3F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0457ED71-4B21-4ED3-9699-897E7616707B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6400" yWindow="1140" windowWidth="27580" windowHeight="14700" tabRatio="884" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6400" yWindow="1140" windowWidth="27580" windowHeight="14700" tabRatio="884" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="__FDSCACHE__" sheetId="7" state="veryHidden" r:id="rId1"/>
@@ -15962,6 +15962,12 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="261" fillId="59" borderId="0" xfId="3623" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
@@ -15976,12 +15982,6 @@
     </xf>
     <xf numFmtId="15" fontId="262" fillId="59" borderId="0" xfId="3623" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3809">
@@ -22522,159 +22522,159 @@
     </row>
     <row r="22" spans="3:23" ht="12.95" customHeight="1">
       <c r="C22" s="310"/>
-      <c r="E22" s="316" t="s">
+      <c r="E22" s="311" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="317"/>
-      <c r="G22" s="317"/>
-      <c r="H22" s="317"/>
-      <c r="I22" s="317"/>
-      <c r="J22" s="317"/>
-      <c r="K22" s="317"/>
-      <c r="L22" s="317"/>
-      <c r="M22" s="317"/>
-      <c r="N22" s="317"/>
-      <c r="O22" s="317"/>
-      <c r="P22" s="317"/>
+      <c r="F22" s="312"/>
+      <c r="G22" s="312"/>
+      <c r="H22" s="312"/>
+      <c r="I22" s="312"/>
+      <c r="J22" s="312"/>
+      <c r="K22" s="312"/>
+      <c r="L22" s="312"/>
+      <c r="M22" s="312"/>
+      <c r="N22" s="312"/>
+      <c r="O22" s="312"/>
+      <c r="P22" s="312"/>
       <c r="W22"/>
     </row>
     <row r="23" spans="3:23" ht="12.95" customHeight="1">
       <c r="C23" s="310"/>
-      <c r="E23" s="317"/>
-      <c r="F23" s="317"/>
-      <c r="G23" s="317"/>
-      <c r="H23" s="317"/>
-      <c r="I23" s="317"/>
-      <c r="J23" s="317"/>
-      <c r="K23" s="317"/>
-      <c r="L23" s="317"/>
-      <c r="M23" s="317"/>
-      <c r="N23" s="317"/>
-      <c r="O23" s="317"/>
-      <c r="P23" s="317"/>
+      <c r="E23" s="312"/>
+      <c r="F23" s="312"/>
+      <c r="G23" s="312"/>
+      <c r="H23" s="312"/>
+      <c r="I23" s="312"/>
+      <c r="J23" s="312"/>
+      <c r="K23" s="312"/>
+      <c r="L23" s="312"/>
+      <c r="M23" s="312"/>
+      <c r="N23" s="312"/>
+      <c r="O23" s="312"/>
+      <c r="P23" s="312"/>
     </row>
     <row r="24" spans="3:23" ht="12.95" customHeight="1">
       <c r="C24" s="310"/>
-      <c r="E24" s="317"/>
-      <c r="F24" s="317"/>
-      <c r="G24" s="317"/>
-      <c r="H24" s="317"/>
-      <c r="I24" s="317"/>
-      <c r="J24" s="317"/>
-      <c r="K24" s="317"/>
-      <c r="L24" s="317"/>
-      <c r="M24" s="317"/>
-      <c r="N24" s="317"/>
-      <c r="O24" s="317"/>
-      <c r="P24" s="317"/>
+      <c r="E24" s="312"/>
+      <c r="F24" s="312"/>
+      <c r="G24" s="312"/>
+      <c r="H24" s="312"/>
+      <c r="I24" s="312"/>
+      <c r="J24" s="312"/>
+      <c r="K24" s="312"/>
+      <c r="L24" s="312"/>
+      <c r="M24" s="312"/>
+      <c r="N24" s="312"/>
+      <c r="O24" s="312"/>
+      <c r="P24" s="312"/>
     </row>
     <row r="25" spans="3:23" ht="12.95" customHeight="1">
       <c r="C25" s="310"/>
-      <c r="E25" s="317"/>
-      <c r="F25" s="317"/>
-      <c r="G25" s="317"/>
-      <c r="H25" s="317"/>
-      <c r="I25" s="317"/>
-      <c r="J25" s="317"/>
-      <c r="K25" s="317"/>
-      <c r="L25" s="317"/>
-      <c r="M25" s="317"/>
-      <c r="N25" s="317"/>
-      <c r="O25" s="317"/>
-      <c r="P25" s="317"/>
+      <c r="E25" s="312"/>
+      <c r="F25" s="312"/>
+      <c r="G25" s="312"/>
+      <c r="H25" s="312"/>
+      <c r="I25" s="312"/>
+      <c r="J25" s="312"/>
+      <c r="K25" s="312"/>
+      <c r="L25" s="312"/>
+      <c r="M25" s="312"/>
+      <c r="N25" s="312"/>
+      <c r="O25" s="312"/>
+      <c r="P25" s="312"/>
     </row>
     <row r="26" spans="3:23" ht="12.75" customHeight="1">
       <c r="C26" s="310"/>
-      <c r="E26" s="317"/>
-      <c r="F26" s="317"/>
-      <c r="G26" s="317"/>
-      <c r="H26" s="317"/>
-      <c r="I26" s="317"/>
-      <c r="J26" s="317"/>
-      <c r="K26" s="317"/>
-      <c r="L26" s="317"/>
-      <c r="M26" s="317"/>
-      <c r="N26" s="317"/>
-      <c r="O26" s="317"/>
-      <c r="P26" s="317"/>
+      <c r="E26" s="312"/>
+      <c r="F26" s="312"/>
+      <c r="G26" s="312"/>
+      <c r="H26" s="312"/>
+      <c r="I26" s="312"/>
+      <c r="J26" s="312"/>
+      <c r="K26" s="312"/>
+      <c r="L26" s="312"/>
+      <c r="M26" s="312"/>
+      <c r="N26" s="312"/>
+      <c r="O26" s="312"/>
+      <c r="P26" s="312"/>
     </row>
     <row r="27" spans="3:23" ht="12.95" customHeight="1">
       <c r="C27" s="310"/>
-      <c r="E27" s="317"/>
-      <c r="F27" s="317"/>
-      <c r="G27" s="317"/>
-      <c r="H27" s="317"/>
-      <c r="I27" s="317"/>
-      <c r="J27" s="317"/>
-      <c r="K27" s="317"/>
-      <c r="L27" s="317"/>
-      <c r="M27" s="317"/>
-      <c r="N27" s="317"/>
-      <c r="O27" s="317"/>
-      <c r="P27" s="317"/>
+      <c r="E27" s="312"/>
+      <c r="F27" s="312"/>
+      <c r="G27" s="312"/>
+      <c r="H27" s="312"/>
+      <c r="I27" s="312"/>
+      <c r="J27" s="312"/>
+      <c r="K27" s="312"/>
+      <c r="L27" s="312"/>
+      <c r="M27" s="312"/>
+      <c r="N27" s="312"/>
+      <c r="O27" s="312"/>
+      <c r="P27" s="312"/>
     </row>
     <row r="28" spans="3:23" ht="12.95" customHeight="1">
       <c r="C28" s="310"/>
-      <c r="E28" s="317"/>
-      <c r="F28" s="317"/>
-      <c r="G28" s="317"/>
-      <c r="H28" s="317"/>
-      <c r="I28" s="317"/>
-      <c r="J28" s="317"/>
-      <c r="K28" s="317"/>
-      <c r="L28" s="317"/>
-      <c r="M28" s="317"/>
-      <c r="N28" s="317"/>
-      <c r="O28" s="317"/>
-      <c r="P28" s="317"/>
+      <c r="E28" s="312"/>
+      <c r="F28" s="312"/>
+      <c r="G28" s="312"/>
+      <c r="H28" s="312"/>
+      <c r="I28" s="312"/>
+      <c r="J28" s="312"/>
+      <c r="K28" s="312"/>
+      <c r="L28" s="312"/>
+      <c r="M28" s="312"/>
+      <c r="N28" s="312"/>
+      <c r="O28" s="312"/>
+      <c r="P28" s="312"/>
     </row>
     <row r="29" spans="3:23" ht="4.5" customHeight="1">
       <c r="C29" s="310"/>
-      <c r="E29" s="317"/>
-      <c r="F29" s="317"/>
-      <c r="G29" s="317"/>
-      <c r="H29" s="317"/>
-      <c r="I29" s="317"/>
-      <c r="J29" s="317"/>
-      <c r="K29" s="317"/>
-      <c r="L29" s="317"/>
-      <c r="M29" s="317"/>
-      <c r="N29" s="317"/>
-      <c r="O29" s="317"/>
-      <c r="P29" s="317"/>
+      <c r="E29" s="312"/>
+      <c r="F29" s="312"/>
+      <c r="G29" s="312"/>
+      <c r="H29" s="312"/>
+      <c r="I29" s="312"/>
+      <c r="J29" s="312"/>
+      <c r="K29" s="312"/>
+      <c r="L29" s="312"/>
+      <c r="M29" s="312"/>
+      <c r="N29" s="312"/>
+      <c r="O29" s="312"/>
+      <c r="P29" s="312"/>
     </row>
     <row r="30" spans="3:23" ht="12.95" customHeight="1">
       <c r="C30" s="310"/>
-      <c r="E30" s="317"/>
-      <c r="F30" s="317"/>
-      <c r="G30" s="317"/>
-      <c r="H30" s="317"/>
-      <c r="I30" s="317"/>
-      <c r="J30" s="317"/>
-      <c r="K30" s="317"/>
-      <c r="L30" s="317"/>
-      <c r="M30" s="317"/>
-      <c r="N30" s="317"/>
-      <c r="O30" s="317"/>
-      <c r="P30" s="317"/>
+      <c r="E30" s="312"/>
+      <c r="F30" s="312"/>
+      <c r="G30" s="312"/>
+      <c r="H30" s="312"/>
+      <c r="I30" s="312"/>
+      <c r="J30" s="312"/>
+      <c r="K30" s="312"/>
+      <c r="L30" s="312"/>
+      <c r="M30" s="312"/>
+      <c r="N30" s="312"/>
+      <c r="O30" s="312"/>
+      <c r="P30" s="312"/>
       <c r="Q30" s="125"/>
       <c r="R30" s="126"/>
       <c r="S30" s="126"/>
     </row>
     <row r="31" spans="3:23" ht="12.95" customHeight="1">
       <c r="C31" s="310"/>
-      <c r="E31" s="317"/>
-      <c r="F31" s="317"/>
-      <c r="G31" s="317"/>
-      <c r="H31" s="317"/>
-      <c r="I31" s="317"/>
-      <c r="J31" s="317"/>
-      <c r="K31" s="317"/>
-      <c r="L31" s="317"/>
-      <c r="M31" s="317"/>
-      <c r="N31" s="317"/>
-      <c r="O31" s="317"/>
-      <c r="P31" s="317"/>
+      <c r="E31" s="312"/>
+      <c r="F31" s="312"/>
+      <c r="G31" s="312"/>
+      <c r="H31" s="312"/>
+      <c r="I31" s="312"/>
+      <c r="J31" s="312"/>
+      <c r="K31" s="312"/>
+      <c r="L31" s="312"/>
+      <c r="M31" s="312"/>
+      <c r="N31" s="312"/>
+      <c r="O31" s="312"/>
+      <c r="P31" s="312"/>
       <c r="Q31" s="126"/>
       <c r="R31" s="126"/>
       <c r="S31" s="126"/>
@@ -22682,144 +22682,144 @@
     </row>
     <row r="32" spans="3:23" ht="12.95" customHeight="1">
       <c r="C32" s="310"/>
-      <c r="E32" s="317"/>
-      <c r="F32" s="317"/>
-      <c r="G32" s="317"/>
-      <c r="H32" s="317"/>
-      <c r="I32" s="317"/>
-      <c r="J32" s="317"/>
-      <c r="K32" s="317"/>
-      <c r="L32" s="317"/>
-      <c r="M32" s="317"/>
-      <c r="N32" s="317"/>
-      <c r="O32" s="317"/>
-      <c r="P32" s="317"/>
+      <c r="E32" s="312"/>
+      <c r="F32" s="312"/>
+      <c r="G32" s="312"/>
+      <c r="H32" s="312"/>
+      <c r="I32" s="312"/>
+      <c r="J32" s="312"/>
+      <c r="K32" s="312"/>
+      <c r="L32" s="312"/>
+      <c r="M32" s="312"/>
+      <c r="N32" s="312"/>
+      <c r="O32" s="312"/>
+      <c r="P32" s="312"/>
       <c r="Q32" s="126"/>
       <c r="R32" s="126"/>
       <c r="S32" s="126"/>
     </row>
     <row r="33" spans="3:19" ht="12.95" customHeight="1">
       <c r="C33" s="310"/>
-      <c r="E33" s="317"/>
-      <c r="F33" s="317"/>
-      <c r="G33" s="317"/>
-      <c r="H33" s="317"/>
-      <c r="I33" s="317"/>
-      <c r="J33" s="317"/>
-      <c r="K33" s="317"/>
-      <c r="L33" s="317"/>
-      <c r="M33" s="317"/>
-      <c r="N33" s="317"/>
-      <c r="O33" s="317"/>
-      <c r="P33" s="317"/>
+      <c r="E33" s="312"/>
+      <c r="F33" s="312"/>
+      <c r="G33" s="312"/>
+      <c r="H33" s="312"/>
+      <c r="I33" s="312"/>
+      <c r="J33" s="312"/>
+      <c r="K33" s="312"/>
+      <c r="L33" s="312"/>
+      <c r="M33" s="312"/>
+      <c r="N33" s="312"/>
+      <c r="O33" s="312"/>
+      <c r="P33" s="312"/>
       <c r="Q33" s="127"/>
       <c r="R33" s="126"/>
       <c r="S33" s="126"/>
     </row>
     <row r="34" spans="3:19" ht="12.95" customHeight="1">
       <c r="C34" s="310"/>
-      <c r="E34" s="317"/>
-      <c r="F34" s="317"/>
-      <c r="G34" s="317"/>
-      <c r="H34" s="317"/>
-      <c r="I34" s="317"/>
-      <c r="J34" s="317"/>
-      <c r="K34" s="317"/>
-      <c r="L34" s="317"/>
-      <c r="M34" s="317"/>
-      <c r="N34" s="317"/>
-      <c r="O34" s="317"/>
-      <c r="P34" s="317"/>
+      <c r="E34" s="312"/>
+      <c r="F34" s="312"/>
+      <c r="G34" s="312"/>
+      <c r="H34" s="312"/>
+      <c r="I34" s="312"/>
+      <c r="J34" s="312"/>
+      <c r="K34" s="312"/>
+      <c r="L34" s="312"/>
+      <c r="M34" s="312"/>
+      <c r="N34" s="312"/>
+      <c r="O34" s="312"/>
+      <c r="P34" s="312"/>
       <c r="Q34" s="127"/>
       <c r="R34" s="126"/>
       <c r="S34" s="126"/>
     </row>
     <row r="35" spans="3:19" ht="4.5" customHeight="1">
       <c r="C35" s="310"/>
-      <c r="E35" s="317"/>
-      <c r="F35" s="317"/>
-      <c r="G35" s="317"/>
-      <c r="H35" s="317"/>
-      <c r="I35" s="317"/>
-      <c r="J35" s="317"/>
-      <c r="K35" s="317"/>
-      <c r="L35" s="317"/>
-      <c r="M35" s="317"/>
-      <c r="N35" s="317"/>
-      <c r="O35" s="317"/>
-      <c r="P35" s="317"/>
+      <c r="E35" s="312"/>
+      <c r="F35" s="312"/>
+      <c r="G35" s="312"/>
+      <c r="H35" s="312"/>
+      <c r="I35" s="312"/>
+      <c r="J35" s="312"/>
+      <c r="K35" s="312"/>
+      <c r="L35" s="312"/>
+      <c r="M35" s="312"/>
+      <c r="N35" s="312"/>
+      <c r="O35" s="312"/>
+      <c r="P35" s="312"/>
       <c r="Q35" s="127"/>
       <c r="R35" s="126"/>
       <c r="S35" s="126"/>
     </row>
     <row r="36" spans="3:19" ht="12.95" customHeight="1">
       <c r="C36" s="310"/>
-      <c r="E36" s="317"/>
-      <c r="F36" s="317"/>
-      <c r="G36" s="317"/>
-      <c r="H36" s="317"/>
-      <c r="I36" s="317"/>
-      <c r="J36" s="317"/>
-      <c r="K36" s="317"/>
-      <c r="L36" s="317"/>
-      <c r="M36" s="317"/>
-      <c r="N36" s="317"/>
-      <c r="O36" s="317"/>
-      <c r="P36" s="317"/>
+      <c r="E36" s="312"/>
+      <c r="F36" s="312"/>
+      <c r="G36" s="312"/>
+      <c r="H36" s="312"/>
+      <c r="I36" s="312"/>
+      <c r="J36" s="312"/>
+      <c r="K36" s="312"/>
+      <c r="L36" s="312"/>
+      <c r="M36" s="312"/>
+      <c r="N36" s="312"/>
+      <c r="O36" s="312"/>
+      <c r="P36" s="312"/>
       <c r="Q36" s="127"/>
       <c r="R36" s="126"/>
       <c r="S36" s="126"/>
     </row>
     <row r="37" spans="3:19" ht="12.95" customHeight="1">
       <c r="C37" s="310"/>
-      <c r="E37" s="317"/>
-      <c r="F37" s="317"/>
-      <c r="G37" s="317"/>
-      <c r="H37" s="317"/>
-      <c r="I37" s="317"/>
-      <c r="J37" s="317"/>
-      <c r="K37" s="317"/>
-      <c r="L37" s="317"/>
-      <c r="M37" s="317"/>
-      <c r="N37" s="317"/>
-      <c r="O37" s="317"/>
-      <c r="P37" s="317"/>
+      <c r="E37" s="312"/>
+      <c r="F37" s="312"/>
+      <c r="G37" s="312"/>
+      <c r="H37" s="312"/>
+      <c r="I37" s="312"/>
+      <c r="J37" s="312"/>
+      <c r="K37" s="312"/>
+      <c r="L37" s="312"/>
+      <c r="M37" s="312"/>
+      <c r="N37" s="312"/>
+      <c r="O37" s="312"/>
+      <c r="P37" s="312"/>
       <c r="Q37" s="127"/>
       <c r="R37" s="126"/>
       <c r="S37" s="126"/>
     </row>
     <row r="38" spans="3:19" ht="12.95" customHeight="1">
       <c r="C38" s="310"/>
-      <c r="E38" s="317"/>
-      <c r="F38" s="317"/>
-      <c r="G38" s="317"/>
-      <c r="H38" s="317"/>
-      <c r="I38" s="317"/>
-      <c r="J38" s="317"/>
-      <c r="K38" s="317"/>
-      <c r="L38" s="317"/>
-      <c r="M38" s="317"/>
-      <c r="N38" s="317"/>
-      <c r="O38" s="317"/>
-      <c r="P38" s="317"/>
+      <c r="E38" s="312"/>
+      <c r="F38" s="312"/>
+      <c r="G38" s="312"/>
+      <c r="H38" s="312"/>
+      <c r="I38" s="312"/>
+      <c r="J38" s="312"/>
+      <c r="K38" s="312"/>
+      <c r="L38" s="312"/>
+      <c r="M38" s="312"/>
+      <c r="N38" s="312"/>
+      <c r="O38" s="312"/>
+      <c r="P38" s="312"/>
       <c r="Q38" s="127"/>
       <c r="R38" s="126"/>
       <c r="S38" s="126"/>
     </row>
     <row r="39" spans="3:19" ht="12.95" customHeight="1">
       <c r="C39" s="310"/>
-      <c r="E39" s="317"/>
-      <c r="F39" s="317"/>
-      <c r="G39" s="317"/>
-      <c r="H39" s="317"/>
-      <c r="I39" s="317"/>
-      <c r="J39" s="317"/>
-      <c r="K39" s="317"/>
-      <c r="L39" s="317"/>
-      <c r="M39" s="317"/>
-      <c r="N39" s="317"/>
-      <c r="O39" s="317"/>
-      <c r="P39" s="317"/>
+      <c r="E39" s="312"/>
+      <c r="F39" s="312"/>
+      <c r="G39" s="312"/>
+      <c r="H39" s="312"/>
+      <c r="I39" s="312"/>
+      <c r="J39" s="312"/>
+      <c r="K39" s="312"/>
+      <c r="L39" s="312"/>
+      <c r="M39" s="312"/>
+      <c r="N39" s="312"/>
+      <c r="O39" s="312"/>
+      <c r="P39" s="312"/>
       <c r="Q39" s="127"/>
       <c r="R39" s="126"/>
       <c r="S39" s="126"/>
@@ -22874,7 +22874,7 @@
   </sheetPr>
   <dimension ref="C3:K24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -23069,8 +23069,8 @@
   </sheetPr>
   <dimension ref="B2:AE90"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView showGridLines="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.95"/>
@@ -23515,27 +23515,27 @@
       </c>
       <c r="Q14" s="84">
         <f>P14*(1+Q15)</f>
-        <v>133073.28</v>
+        <v>124448.16</v>
       </c>
       <c r="R14" s="84">
         <f t="shared" ref="R14:V14" si="4">Q14*(1+R15)</f>
-        <v>143719.14240000001</v>
+        <v>126314.88239999999</v>
       </c>
       <c r="S14" s="84">
         <f t="shared" si="4"/>
-        <v>155216.67379200002</v>
+        <v>128841.18004799999</v>
       </c>
       <c r="T14" s="84">
         <f t="shared" si="4"/>
-        <v>167634.00769536002</v>
+        <v>132062.20954919999</v>
       </c>
       <c r="U14" s="84">
         <f t="shared" si="4"/>
-        <v>181044.72831098884</v>
+        <v>136024.07583567599</v>
       </c>
       <c r="V14" s="84">
         <f t="shared" si="4"/>
-        <v>195528.30657586796</v>
+        <v>140784.91848992463</v>
       </c>
     </row>
     <row r="15" spans="2:31" ht="12.75">
@@ -23590,22 +23590,27 @@
         <v>7.7995818059334532E-2</v>
       </c>
       <c r="Q15" s="6">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="R15" s="6">
-        <v>0.08</v>
+        <f>Q15+0.005</f>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="S15" s="6">
-        <v>0.08</v>
+        <f t="shared" ref="S15:V15" si="7">R15+0.005</f>
+        <v>0.02</v>
       </c>
       <c r="T15" s="6">
-        <v>0.08</v>
+        <f t="shared" si="7"/>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="U15" s="6">
-        <v>0.08</v>
+        <f t="shared" si="7"/>
+        <v>3.0000000000000002E-2</v>
       </c>
       <c r="V15" s="6">
-        <v>0.08</v>
+        <f t="shared" si="7"/>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="16" spans="2:31" ht="12.75">
@@ -23620,23 +23625,23 @@
         <v>0.28722339232473537</v>
       </c>
       <c r="G16" s="88">
-        <f t="shared" ref="G16:K16" si="7">G14/G11</f>
+        <f t="shared" ref="G16:K16" si="8">G14/G11</f>
         <v>0.30477290717326661</v>
       </c>
       <c r="H16" s="88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.27835410106706115</v>
       </c>
       <c r="I16" s="88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.26760428208729942</v>
       </c>
       <c r="J16" s="88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.26694026619477024</v>
       </c>
       <c r="K16" s="88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.24572017188496928</v>
       </c>
       <c r="L16" s="98">
@@ -23644,44 +23649,44 @@
         <v>0.24147314354406862</v>
       </c>
       <c r="M16" s="98">
-        <f t="shared" ref="M16:V16" si="8">M14/M11</f>
+        <f t="shared" ref="M16:V16" si="9">M14/M11</f>
         <v>0.29782377527561593</v>
       </c>
       <c r="N16" s="98">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.3021212765096325</v>
       </c>
       <c r="O16" s="98">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.29821412265024722</v>
       </c>
       <c r="P16" s="98">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.31510222870075566</v>
       </c>
       <c r="Q16" s="98">
-        <f t="shared" si="8"/>
-        <v>0.33039845339496715</v>
+        <f t="shared" si="9"/>
+        <v>0.30898373882307112</v>
       </c>
       <c r="R16" s="98">
-        <f t="shared" si="8"/>
-        <v>0.34728012619616982</v>
+        <f t="shared" si="9"/>
+        <v>0.30522481256001666</v>
       </c>
       <c r="S16" s="98">
-        <f t="shared" si="8"/>
-        <v>0.36591466955303753</v>
+        <f t="shared" si="9"/>
+        <v>0.30373591103533371</v>
       </c>
       <c r="T16" s="98">
-        <f t="shared" si="8"/>
-        <v>0.38649177810980984</v>
+        <f t="shared" si="9"/>
+        <v>0.30447854162466215</v>
       </c>
       <c r="U16" s="98">
-        <f t="shared" si="8"/>
-        <v>0.40922658858685751</v>
+        <f t="shared" si="9"/>
+        <v>0.30746362536608041</v>
       </c>
       <c r="V16" s="98">
-        <f t="shared" si="8"/>
-        <v>0.43436335692757355</v>
+        <f t="shared" si="9"/>
+        <v>0.31275169754682375</v>
       </c>
       <c r="Y16" s="260"/>
       <c r="Z16" s="260"/>
@@ -23759,23 +23764,23 @@
         <v>11513.67</v>
       </c>
       <c r="R18" s="84">
-        <f t="shared" ref="R18:V18" si="9">Q18*(1+R19)</f>
+        <f t="shared" ref="R18:V18" si="10">Q18*(1+R19)</f>
         <v>11582.75202</v>
       </c>
       <c r="S18" s="84">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>11652.24853212</v>
       </c>
       <c r="T18" s="84">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>11722.16202331272</v>
       </c>
       <c r="U18" s="84">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>11792.494995452596</v>
       </c>
       <c r="V18" s="84">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>11863.249965425312</v>
       </c>
     </row>
@@ -23787,47 +23792,47 @@
       <c r="D19" s="14"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="str">
-        <f t="shared" ref="F19:V19" si="10">IF(ISERROR(F18/E18-1),"n.a.",F18/E18-1)</f>
+        <f t="shared" ref="F19:V19" si="11">IF(ISERROR(F18/E18-1),"n.a.",F18/E18-1)</f>
         <v>n.a.</v>
       </c>
       <c r="G19" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.41668764158066951</v>
       </c>
       <c r="H19" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-6.6802878209114347E-2</v>
       </c>
       <c r="I19" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-3.3127082341741998E-2</v>
       </c>
       <c r="J19" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.3446883922418049E-2</v>
       </c>
       <c r="K19" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.15078418783820968</v>
       </c>
       <c r="L19" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-0.11883318721606762</v>
       </c>
       <c r="M19" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.062228654124465E-2</v>
       </c>
       <c r="N19" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-1.595179014533854E-2</v>
       </c>
       <c r="O19" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.7373919308357317E-2</v>
       </c>
       <c r="P19" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-6.4241687646496848E-3</v>
       </c>
       <c r="Q19" s="6">
@@ -23857,47 +23862,47 @@
       <c r="D20" s="14"/>
       <c r="E20" s="6"/>
       <c r="F20" s="98">
-        <f t="shared" ref="F20:P20" si="11">IF(ISERROR(F18/F$38),"n.a.",F18/F$38)</f>
+        <f t="shared" ref="F20:P20" si="12">IF(ISERROR(F18/F$38),"n.a.",F18/F$38)</f>
         <v>-0.83021627834082123</v>
       </c>
       <c r="G20" s="98">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-1.0008891259891526</v>
       </c>
       <c r="H20" s="98">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.82495680854405529</v>
       </c>
       <c r="I20" s="98">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.81575777046020403</v>
       </c>
       <c r="J20" s="98">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.81897393525125817</v>
       </c>
       <c r="K20" s="98">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-1.1955216769890424</v>
       </c>
       <c r="L20" s="98">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-1.5126556300451499</v>
       </c>
       <c r="M20" s="98">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-1.0179521876409563</v>
       </c>
       <c r="N20" s="98">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-1.0369816959282778</v>
       </c>
       <c r="O20" s="98">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-1.0510995528789122</v>
       </c>
       <c r="P20" s="98">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-1.2114957129247381</v>
       </c>
       <c r="Q20" s="272"/>
@@ -24028,68 +24033,68 @@
         <v>60449</v>
       </c>
       <c r="G23" s="87">
-        <f t="shared" ref="G23:V23" si="12">G14+G18</f>
+        <f t="shared" ref="G23:V23" si="13">G14+G18</f>
         <v>82487</v>
       </c>
       <c r="H23" s="87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>70529</v>
       </c>
       <c r="I23" s="87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>71501</v>
       </c>
       <c r="J23" s="87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>81801</v>
       </c>
       <c r="K23" s="87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>76477</v>
       </c>
       <c r="L23" s="87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>77344</v>
       </c>
       <c r="M23" s="87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>120233</v>
       </c>
       <c r="N23" s="87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>130541</v>
       </c>
       <c r="O23" s="87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>125820</v>
       </c>
       <c r="P23" s="87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>134661</v>
       </c>
       <c r="Q23" s="87">
-        <f t="shared" si="12"/>
-        <v>144586.95000000001</v>
+        <f t="shared" si="13"/>
+        <v>135961.83000000002</v>
       </c>
       <c r="R23" s="87">
-        <f t="shared" si="12"/>
-        <v>155301.89442000003</v>
+        <f t="shared" si="13"/>
+        <v>137897.63441999999</v>
       </c>
       <c r="S23" s="87">
-        <f t="shared" si="12"/>
-        <v>166868.92232412001</v>
+        <f t="shared" si="13"/>
+        <v>140493.42858012</v>
       </c>
       <c r="T23" s="87">
-        <f t="shared" si="12"/>
-        <v>179356.16971867275</v>
+        <f t="shared" si="13"/>
+        <v>143784.37157251273</v>
       </c>
       <c r="U23" s="87">
-        <f t="shared" si="12"/>
-        <v>192837.22330644145</v>
+        <f t="shared" si="13"/>
+        <v>147816.5708311286</v>
       </c>
       <c r="V23" s="87">
-        <f t="shared" si="12"/>
-        <v>207391.55654129328</v>
+        <f t="shared" si="13"/>
+        <v>152648.16845534995</v>
       </c>
     </row>
     <row r="24" spans="2:31">
@@ -24100,72 +24105,72 @@
       <c r="D24" s="14"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6" t="str">
-        <f t="shared" ref="F24:V24" si="13">IF(ISERROR(F23/E23-1),"n.a.",F23/E23-1)</f>
+        <f t="shared" ref="F24:V24" si="14">IF(ISERROR(F23/E23-1),"n.a.",F23/E23-1)</f>
         <v>n.a.</v>
       </c>
       <c r="G24" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.36457178778805277</v>
       </c>
       <c r="H24" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-0.1449682980348419</v>
       </c>
       <c r="I24" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.378156502998773E-2</v>
       </c>
       <c r="J24" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.14405392931567396</v>
       </c>
       <c r="K24" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-6.5084778914683228E-2</v>
       </c>
       <c r="L24" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.1336741765498148E-2</v>
       </c>
       <c r="M24" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.55452265204799334</v>
       </c>
       <c r="N24" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.5733534054710514E-2</v>
       </c>
       <c r="O24" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-3.6164883063558584E-2</v>
       </c>
       <c r="P24" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7.0267048164043944E-2</v>
       </c>
       <c r="Q24" s="6">
-        <f t="shared" si="13"/>
-        <v>7.3710651190767917E-2</v>
+        <f t="shared" si="14"/>
+        <v>9.6600351995010936E-3</v>
       </c>
       <c r="R24" s="6">
-        <f t="shared" si="13"/>
-        <v>7.4107271921843632E-2</v>
+        <f t="shared" si="14"/>
+        <v>1.4237852050093647E-2</v>
       </c>
       <c r="S24" s="6">
-        <f t="shared" si="13"/>
-        <v>7.4480919549107405E-2</v>
+        <f t="shared" si="14"/>
+        <v>1.8824065916996924E-2</v>
       </c>
       <c r="T24" s="6">
-        <f t="shared" si="13"/>
-        <v>7.4832672379210097E-2</v>
+        <f t="shared" si="14"/>
+        <v>2.3424177384324896E-2</v>
       </c>
       <c r="U24" s="6">
-        <f t="shared" si="13"/>
-        <v>7.5163589905573147E-2</v>
+        <f t="shared" si="14"/>
+        <v>2.8043376442914436E-2</v>
       </c>
       <c r="V24" s="6">
-        <f t="shared" si="13"/>
-        <v>7.547470859255867E-2</v>
+        <f t="shared" si="14"/>
+        <v>3.2686441019804002E-2</v>
       </c>
     </row>
     <row r="25" spans="2:31">
@@ -24176,72 +24181,72 @@
       <c r="D25" s="14"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6">
-        <f t="shared" ref="F25:Q25" si="14">IF(ISERROR(F23/F$11),"n.a.",F23/F$11)</f>
+        <f t="shared" ref="F25:Q25" si="15">IF(ISERROR(F23/F$11),"n.a.",F23/F$11)</f>
         <v>0.3306928526491425</v>
       </c>
       <c r="G25" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.35293840788995146</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.32706977865784947</v>
       </c>
       <c r="I25" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.31191271800867237</v>
       </c>
       <c r="J25" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.30799149080366722</v>
       </c>
       <c r="K25" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.29394559025882677</v>
       </c>
       <c r="L25" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.2817478097736007</v>
       </c>
       <c r="M25" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.32866979938056462</v>
       </c>
       <c r="N25" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.33020934515136796</v>
       </c>
       <c r="O25" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.32826747720364741</v>
       </c>
       <c r="P25" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.34437070850435381</v>
       </c>
       <c r="Q25" s="6">
-        <f t="shared" si="14"/>
-        <v>0.35898494920314167</v>
+        <f t="shared" si="15"/>
+        <v>0.33757023463124564</v>
       </c>
       <c r="R25" s="6">
         <f>IF(ISERROR(R23/R$11),"n.a.",R23/R$11)</f>
-        <v>0.37526846175142392</v>
+        <v>0.3332131481152707</v>
       </c>
       <c r="S25" s="6">
         <f>IF(ISERROR(S23/S$11),"n.a.",S23/S$11)</f>
-        <v>0.39338419693702348</v>
+        <v>0.33120543841931965</v>
       </c>
       <c r="T25" s="6">
         <f>IF(ISERROR(T23/T$11),"n.a.",T23/T$11)</f>
-        <v>0.41351803194676817</v>
+        <v>0.33150479546162048</v>
       </c>
       <c r="U25" s="6">
         <f>IF(ISERROR(U23/U$11),"n.a.",U23/U$11)</f>
-        <v>0.43588189384173992</v>
+        <v>0.33411893062096282</v>
       </c>
       <c r="V25" s="6">
         <f>IF(ISERROR(V23/V$11),"n.a.",V23/V$11)</f>
-        <v>0.46071739829014036</v>
+        <v>0.3391057389093905</v>
       </c>
     </row>
     <row r="26" spans="2:31">
@@ -24402,47 +24407,47 @@
       <c r="D30" s="14"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6" t="str">
-        <f t="shared" ref="F30:P30" si="15">IF(ISERROR(F29/E29-1),"n.a.",F29/E29-1)</f>
+        <f t="shared" ref="F30:P30" si="16">IF(ISERROR(F29/E29-1),"n.a.",F29/E29-1)</f>
         <v>n.a.</v>
       </c>
       <c r="G30" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.3514047076689446</v>
       </c>
       <c r="H30" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-0.14434206090571977</v>
       </c>
       <c r="I30" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.830980366406191E-2</v>
       </c>
       <c r="J30" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.23122582780087275</v>
       </c>
       <c r="K30" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-7.1811325191916797E-2</v>
       </c>
       <c r="L30" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.9000289561314627E-2</v>
       </c>
       <c r="M30" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.64916131055024295</v>
       </c>
       <c r="N30" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.410857625686516E-2</v>
       </c>
       <c r="O30" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.8135426790777851E-2</v>
       </c>
       <c r="P30" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-3.3599670086086886E-2</v>
       </c>
       <c r="Q30" s="259"/>
@@ -24460,23 +24465,23 @@
       <c r="D31" s="14"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6">
-        <f t="shared" ref="F31:P31" si="16">IF(ISERROR(F29/F$11),"n.a.",F29/F$11)</f>
+        <f t="shared" ref="F31:P31" si="17">IF(ISERROR(F29/F$11),"n.a.",F29/F$11)</f>
         <v>0.21614376760852322</v>
       </c>
       <c r="G31" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.22845773698735639</v>
       </c>
       <c r="H31" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.211867983064288</v>
       </c>
       <c r="I31" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.21092420845075338</v>
       </c>
       <c r="J31" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.22414202074587247</v>
       </c>
       <c r="K31" s="6">
@@ -24484,23 +24489,23 @@
         <v>0.21238094505984456</v>
       </c>
       <c r="L31" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.20913611278072236</v>
       </c>
       <c r="M31" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.25881793355694238</v>
       </c>
       <c r="N31" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.25245618827909988</v>
       </c>
       <c r="O31" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.25306234264320282</v>
       </c>
       <c r="P31" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.23971255769943867</v>
       </c>
       <c r="Q31" s="5"/>
@@ -24695,23 +24700,23 @@
         <v>-9635.94</v>
       </c>
       <c r="R38" s="261">
-        <f t="shared" ref="R38:V38" si="17">Q38*(1+R39)</f>
+        <f t="shared" ref="R38:V38" si="18">Q38*(1+R39)</f>
         <v>-9828.6588000000011</v>
       </c>
       <c r="S38" s="261">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-10025.231976000001</v>
       </c>
       <c r="T38" s="261">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-10225.736615520002</v>
       </c>
       <c r="U38" s="261">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-10430.251347830403</v>
       </c>
       <c r="V38" s="261">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-10638.85637478701</v>
       </c>
       <c r="Y38" s="260" t="s">
@@ -24732,7 +24737,7 @@
       <c r="D39" s="14"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6" t="str">
-        <f t="shared" ref="F39" si="18">IF(ISERROR(F38/E38-1),"n.a.",F38/E38-1)</f>
+        <f t="shared" ref="F39" si="19">IF(ISERROR(F38/E38-1),"n.a.",F38/E38-1)</f>
         <v>n.a.</v>
       </c>
       <c r="G39" s="6">
@@ -24740,39 +24745,39 @@
         <v>0.17511231846202069</v>
       </c>
       <c r="H39" s="6">
-        <f t="shared" ref="H39:V39" si="19">IF(ISERROR(H38/G38-1),"n.a.",H38/G38-1)</f>
+        <f t="shared" ref="H39:V39" si="20">IF(ISERROR(H38/G38-1),"n.a.",H38/G38-1)</f>
         <v>0.13221303458700095</v>
       </c>
       <c r="I39" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-2.2223967331553296E-2</v>
       </c>
       <c r="J39" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>6.9231387037185677E-2</v>
       </c>
       <c r="K39" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.21167280102155783</v>
       </c>
       <c r="L39" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.3035731300619342</v>
       </c>
       <c r="M39" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.5166233410863319</v>
       </c>
       <c r="N39" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-3.4009923319801572E-2</v>
       </c>
       <c r="O39" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.3440418378782191E-2</v>
       </c>
       <c r="P39" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.13796879277306329</v>
       </c>
       <c r="Q39" s="6">
@@ -24802,71 +24807,71 @@
       <c r="D40" s="14"/>
       <c r="E40" s="6"/>
       <c r="F40" s="98">
-        <f t="shared" ref="F40:V40" si="20">IF(ISERROR(-F38/F$11),"n.a.",-F38/F$11)</f>
+        <f t="shared" ref="F40:V40" si="21">IF(ISERROR(-F38/F$11),"n.a.",-F38/F$11)</f>
         <v>5.235920019694193E-2</v>
       </c>
       <c r="G40" s="98">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.812271356138887E-2</v>
       </c>
       <c r="H40" s="98">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5.9052397757362998E-2</v>
       </c>
       <c r="I40" s="98">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5.4315677430049641E-2</v>
       </c>
       <c r="J40" s="98">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5.0125190609762983E-2</v>
       </c>
       <c r="K40" s="98">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.033838892433525E-2</v>
       </c>
       <c r="L40" s="98">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.6625138881299748E-2</v>
       </c>
       <c r="M40" s="98">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3.0302036264033657E-2</v>
       </c>
       <c r="N40" s="98">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.7086368787437268E-2</v>
       </c>
       <c r="O40" s="98">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.859230076835775E-2</v>
       </c>
       <c r="P40" s="98">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.415896275269477E-2</v>
       </c>
       <c r="Q40" s="98">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.3924409716260843E-2</v>
       </c>
       <c r="R40" s="98">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.3749778988404923E-2</v>
       </c>
       <c r="S40" s="98">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.3633926407973682E-2</v>
       </c>
       <c r="T40" s="98">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.3576141746829496E-2</v>
       </c>
       <c r="U40" s="98">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.3576141746829496E-2</v>
       </c>
       <c r="V40" s="98">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.3634068385028094E-2</v>
       </c>
     </row>
@@ -24923,27 +24928,27 @@
       </c>
       <c r="Q41" s="6">
         <f>(Q14+Q38)/Q14</f>
-        <v>0.92758922001471666</v>
+        <v>0.9225706511048456</v>
       </c>
       <c r="R41" s="6">
         <f>(R14+R38)/R14</f>
-        <v>0.93161204112501017</v>
+        <v>0.92218922574082995</v>
       </c>
       <c r="S41" s="6">
         <f>(S14+S38)/S14</f>
-        <v>0.93541137217362069</v>
+        <v>0.92218922574083007</v>
       </c>
       <c r="T41" s="6">
         <f>(T14+T38)/T14</f>
-        <v>0.93899962927508629</v>
+        <v>0.92256879049331375</v>
       </c>
       <c r="U41" s="6">
         <f>(U14+U38)/U14</f>
-        <v>0.94238853875980366</v>
+        <v>0.92332054980891265</v>
       </c>
       <c r="V41" s="6">
         <f>(V14+V38)/V14</f>
-        <v>0.94558917549537014</v>
+        <v>0.92443184618849361</v>
       </c>
     </row>
     <row r="42" spans="2:31">
@@ -25033,27 +25038,27 @@
       <c r="D44" s="89"/>
       <c r="E44" s="89"/>
       <c r="F44" s="6" t="str">
-        <f t="shared" ref="F44:V44" si="21">IF(ISERROR(F43/E43-1),"n.a.",F43/E43-1)</f>
+        <f t="shared" ref="F44:V44" si="22">IF(ISERROR(F43/E43-1),"n.a.",F43/E43-1)</f>
         <v>n.a.</v>
       </c>
       <c r="G44" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-5.2607617987758593E-2</v>
       </c>
       <c r="H44" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-1.2252122377062309</v>
       </c>
       <c r="I44" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-6.6550497866287337</v>
       </c>
       <c r="J44" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.5383809164465685</v>
       </c>
       <c r="K44" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-1.181806170311158</v>
       </c>
       <c r="L44" s="6">
@@ -25061,43 +25066,43 @@
         <v>-1.7430959302325582</v>
       </c>
       <c r="M44" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4.4416870415647924</v>
       </c>
       <c r="N44" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-0.32702805921865519</v>
       </c>
       <c r="O44" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-1.0836894111363333</v>
       </c>
       <c r="P44" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-16.75309134423614</v>
       </c>
       <c r="Q44" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="R44" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="S44" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="T44" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U44" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V44" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -25108,70 +25113,70 @@
       <c r="D45" s="14"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6">
-        <f t="shared" ref="F45:P45" si="22">IF(ISERROR(F43/F$11),"n.a.",F43/F$11)</f>
+        <f t="shared" ref="F45:P45" si="23">IF(ISERROR(F43/F$11),"n.a.",F43/F$11)</f>
         <v>0.10814847233239422</v>
       </c>
       <c r="G45" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>8.0136063153841211E-2</v>
       </c>
       <c r="H45" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-1.9560469117367453E-2</v>
       </c>
       <c r="I45" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.10405524485896507</v>
       </c>
       <c r="J45" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.22797115909561549</v>
       </c>
       <c r="K45" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-4.2310146286715811E-2</v>
       </c>
       <c r="L45" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.9798007394860025E-2</v>
       </c>
       <c r="M45" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.12168105910878936</v>
       </c>
       <c r="N45" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>7.5775052614537805E-2</v>
       </c>
       <c r="O45" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-6.5408247126811639E-3</v>
       </c>
       <c r="P45" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.10099607452018361</v>
       </c>
       <c r="Q45" s="271">
         <v>0</v>
       </c>
       <c r="R45" s="6">
-        <f t="shared" ref="R45:V45" si="23">Q45</f>
+        <f t="shared" ref="R45:V45" si="24">Q45</f>
         <v>0</v>
       </c>
       <c r="S45" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="T45" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="U45" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V45" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -25242,23 +25247,23 @@
         <v>-120238.48</v>
       </c>
       <c r="R47" s="261">
-        <f t="shared" ref="R47:V47" si="24">Q47*(1+R48)</f>
+        <f t="shared" ref="R47:V47" si="25">Q47*(1+R48)</f>
         <v>-121440.8648</v>
       </c>
       <c r="S47" s="261">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-122655.27344799999</v>
       </c>
       <c r="T47" s="261">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-123881.82618248</v>
       </c>
       <c r="U47" s="261">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-125120.64444430479</v>
       </c>
       <c r="V47" s="261">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-126371.85088874784</v>
       </c>
       <c r="Y47" s="260" t="s">
@@ -25279,7 +25284,7 @@
       <c r="D48" s="14"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6" t="str">
-        <f t="shared" ref="F48" si="25">IF(ISERROR(F47/E47-1),"n.a.",F47/E47-1)</f>
+        <f t="shared" ref="F48" si="26">IF(ISERROR(F47/E47-1),"n.a.",F47/E47-1)</f>
         <v>n.a.</v>
       </c>
       <c r="G48" s="6">
@@ -25287,39 +25292,39 @@
         <v>0.22156067056945195</v>
       </c>
       <c r="H48" s="6">
-        <f t="shared" ref="H48" si="26">IF(ISERROR(H47/G47-1),"n.a.",H47/G47-1)</f>
+        <f t="shared" ref="H48" si="27">IF(ISERROR(H47/G47-1),"n.a.",H47/G47-1)</f>
         <v>-9.5166780122532324E-2</v>
       </c>
       <c r="I48" s="6">
-        <f t="shared" ref="I48" si="27">IF(ISERROR(I47/H47-1),"n.a.",I47/H47-1)</f>
+        <f t="shared" ref="I48" si="28">IF(ISERROR(I47/H47-1),"n.a.",I47/H47-1)</f>
         <v>-3.0695154980439399E-2</v>
       </c>
       <c r="J48" s="6">
-        <f t="shared" ref="J48" si="28">IF(ISERROR(J47/I47-1),"n.a.",J47/I47-1)</f>
+        <f t="shared" ref="J48" si="29">IF(ISERROR(J47/I47-1),"n.a.",J47/I47-1)</f>
         <v>0.11471592673082887</v>
       </c>
       <c r="K48" s="6">
-        <f t="shared" ref="K48" si="29">IF(ISERROR(K47/J47-1),"n.a.",K47/J47-1)</f>
+        <f t="shared" ref="K48" si="30">IF(ISERROR(K47/J47-1),"n.a.",K47/J47-1)</f>
         <v>-0.37473889430441443</v>
       </c>
       <c r="L48" s="6">
-        <f t="shared" ref="L48" si="30">IF(ISERROR(L47/K47-1),"n.a.",L47/K47-1)</f>
+        <f t="shared" ref="L48" si="31">IF(ISERROR(L47/K47-1),"n.a.",L47/K47-1)</f>
         <v>1.0291536748329619</v>
       </c>
       <c r="M48" s="6">
-        <f t="shared" ref="M48" si="31">IF(ISERROR(M47/L47-1),"n.a.",M47/L47-1)</f>
+        <f t="shared" ref="M48" si="32">IF(ISERROR(M47/L47-1),"n.a.",M47/L47-1)</f>
         <v>0.1908593003984238</v>
       </c>
       <c r="N48" s="6">
-        <f t="shared" ref="N48" si="32">IF(ISERROR(N47/M47-1),"n.a.",N47/M47-1)</f>
+        <f t="shared" ref="N48" si="33">IF(ISERROR(N47/M47-1),"n.a.",N47/M47-1)</f>
         <v>0.22677837379490873</v>
       </c>
       <c r="O48" s="6">
-        <f t="shared" ref="O48" si="33">IF(ISERROR(O47/N47-1),"n.a.",O47/N47-1)</f>
+        <f t="shared" ref="O48" si="34">IF(ISERROR(O47/N47-1),"n.a.",O47/N47-1)</f>
         <v>-0.21276755595290864</v>
       </c>
       <c r="P48" s="6">
-        <f t="shared" ref="P48" si="34">IF(ISERROR(P47/O47-1),"n.a.",P47/O47-1)</f>
+        <f t="shared" ref="P48" si="35">IF(ISERROR(P47/O47-1),"n.a.",P47/O47-1)</f>
         <v>0.13613849574835624</v>
       </c>
       <c r="Q48" s="6">
@@ -25349,71 +25354,71 @@
       <c r="D49" s="14"/>
       <c r="E49" s="6"/>
       <c r="F49" s="98">
-        <f t="shared" ref="F49:V49" si="35">IF(ISERROR(-F47/F$11),"n.a.",-F47/F$11)</f>
+        <f t="shared" ref="F49:V49" si="36">IF(ISERROR(-F47/F$11),"n.a.",-F47/F$11)</f>
         <v>0.32893678711124485</v>
       </c>
       <c r="G49" s="98">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.31427165564897419</v>
       </c>
       <c r="H49" s="98">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.30820027917027998</v>
       </c>
       <c r="I49" s="98">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.28102288491236027</v>
       </c>
       <c r="J49" s="98">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.2703740657768407</v>
       </c>
       <c r="K49" s="98">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.17257681397833757</v>
       </c>
       <c r="L49" s="98">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.33189078921006138</v>
       </c>
       <c r="M49" s="98">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.29659091841002466</v>
       </c>
       <c r="N49" s="98">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.33669003966326694</v>
       </c>
       <c r="O49" s="98">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.27338142635375767</v>
       </c>
       <c r="P49" s="98">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.30444333627424652</v>
       </c>
       <c r="Q49" s="98">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.29853181518154276</v>
       </c>
       <c r="R49" s="98">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.29344733171129744</v>
       </c>
       <c r="S49" s="98">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.28915298051552241</v>
       </c>
       <c r="T49" s="98">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.28561810300310769</v>
       </c>
       <c r="U49" s="98">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.28281792552268509</v>
       </c>
       <c r="V49" s="98">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.28073327250900432</v>
       </c>
     </row>
@@ -25506,7 +25511,7 @@
       <c r="D52" s="14"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6" t="str">
-        <f t="shared" ref="F52" si="36">IF(ISERROR(F51/E51-1),"n.a.",F51/E51-1)</f>
+        <f t="shared" ref="F52" si="37">IF(ISERROR(F51/E51-1),"n.a.",F51/E51-1)</f>
         <v>n.a.</v>
       </c>
       <c r="G52" s="6" t="str">
@@ -25514,63 +25519,63 @@
         <v>n.a.</v>
       </c>
       <c r="H52" s="6" t="str">
-        <f t="shared" ref="H52" si="37">IF(ISERROR(H51/G51-1),"n.a.",H51/G51-1)</f>
+        <f t="shared" ref="H52" si="38">IF(ISERROR(H51/G51-1),"n.a.",H51/G51-1)</f>
         <v>n.a.</v>
       </c>
       <c r="I52" s="6" t="str">
-        <f t="shared" ref="I52" si="38">IF(ISERROR(I51/H51-1),"n.a.",I51/H51-1)</f>
+        <f t="shared" ref="I52" si="39">IF(ISERROR(I51/H51-1),"n.a.",I51/H51-1)</f>
         <v>n.a.</v>
       </c>
       <c r="J52" s="6" t="str">
-        <f t="shared" ref="J52" si="39">IF(ISERROR(J51/I51-1),"n.a.",J51/I51-1)</f>
+        <f t="shared" ref="J52" si="40">IF(ISERROR(J51/I51-1),"n.a.",J51/I51-1)</f>
         <v>n.a.</v>
       </c>
       <c r="K52" s="6" t="str">
-        <f t="shared" ref="K52" si="40">IF(ISERROR(K51/J51-1),"n.a.",K51/J51-1)</f>
+        <f t="shared" ref="K52" si="41">IF(ISERROR(K51/J51-1),"n.a.",K51/J51-1)</f>
         <v>n.a.</v>
       </c>
       <c r="L52" s="6" t="str">
-        <f t="shared" ref="L52" si="41">IF(ISERROR(L51/K51-1),"n.a.",L51/K51-1)</f>
+        <f t="shared" ref="L52" si="42">IF(ISERROR(L51/K51-1),"n.a.",L51/K51-1)</f>
         <v>n.a.</v>
       </c>
       <c r="M52" s="6" t="str">
-        <f t="shared" ref="M52" si="42">IF(ISERROR(M51/L51-1),"n.a.",M51/L51-1)</f>
+        <f t="shared" ref="M52" si="43">IF(ISERROR(M51/L51-1),"n.a.",M51/L51-1)</f>
         <v>n.a.</v>
       </c>
       <c r="N52" s="6" t="str">
-        <f t="shared" ref="N52" si="43">IF(ISERROR(N51/M51-1),"n.a.",N51/M51-1)</f>
+        <f t="shared" ref="N52" si="44">IF(ISERROR(N51/M51-1),"n.a.",N51/M51-1)</f>
         <v>n.a.</v>
       </c>
       <c r="O52" s="6" t="str">
-        <f t="shared" ref="O52" si="44">IF(ISERROR(O51/N51-1),"n.a.",O51/N51-1)</f>
+        <f t="shared" ref="O52" si="45">IF(ISERROR(O51/N51-1),"n.a.",O51/N51-1)</f>
         <v>n.a.</v>
       </c>
       <c r="P52" s="6" t="str">
-        <f t="shared" ref="P52" si="45">IF(ISERROR(P51/O51-1),"n.a.",P51/O51-1)</f>
+        <f t="shared" ref="P52" si="46">IF(ISERROR(P51/O51-1),"n.a.",P51/O51-1)</f>
         <v>n.a.</v>
       </c>
       <c r="Q52" s="6" t="str">
-        <f t="shared" ref="Q52" si="46">IF(ISERROR(Q51/P51-1),"n.a.",Q51/P51-1)</f>
+        <f t="shared" ref="Q52" si="47">IF(ISERROR(Q51/P51-1),"n.a.",Q51/P51-1)</f>
         <v>n.a.</v>
       </c>
       <c r="R52" s="6" t="str">
-        <f t="shared" ref="R52" si="47">IF(ISERROR(R51/Q51-1),"n.a.",R51/Q51-1)</f>
+        <f t="shared" ref="R52" si="48">IF(ISERROR(R51/Q51-1),"n.a.",R51/Q51-1)</f>
         <v>n.a.</v>
       </c>
       <c r="S52" s="6" t="str">
-        <f t="shared" ref="S52" si="48">IF(ISERROR(S51/R51-1),"n.a.",S51/R51-1)</f>
+        <f t="shared" ref="S52" si="49">IF(ISERROR(S51/R51-1),"n.a.",S51/R51-1)</f>
         <v>n.a.</v>
       </c>
       <c r="T52" s="6" t="str">
-        <f t="shared" ref="T52" si="49">IF(ISERROR(T51/S51-1),"n.a.",T51/S51-1)</f>
+        <f t="shared" ref="T52" si="50">IF(ISERROR(T51/S51-1),"n.a.",T51/S51-1)</f>
         <v>n.a.</v>
       </c>
       <c r="U52" s="6" t="str">
-        <f t="shared" ref="U52" si="50">IF(ISERROR(U51/T51-1),"n.a.",U51/T51-1)</f>
+        <f t="shared" ref="U52" si="51">IF(ISERROR(U51/T51-1),"n.a.",U51/T51-1)</f>
         <v>n.a.</v>
       </c>
       <c r="V52" s="6" t="str">
-        <f t="shared" ref="V52" si="51">IF(ISERROR(V51/U51-1),"n.a.",V51/U51-1)</f>
+        <f t="shared" ref="V52" si="52">IF(ISERROR(V51/U51-1),"n.a.",V51/U51-1)</f>
         <v>n.a.</v>
       </c>
     </row>
@@ -25582,71 +25587,71 @@
       <c r="D53" s="14"/>
       <c r="E53" s="6"/>
       <c r="F53" s="98">
-        <f t="shared" ref="F53:V53" si="52">IF(ISERROR(-F51/F$11),"n.a.",-F51/F$11)</f>
+        <f t="shared" ref="F53:V53" si="53">IF(ISERROR(-F51/F$11),"n.a.",-F51/F$11)</f>
         <v>0</v>
       </c>
       <c r="G53" s="98">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="H53" s="98">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="I53" s="98">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="J53" s="98">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="K53" s="98">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="L53" s="98">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="M53" s="98">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="N53" s="98">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="O53" s="98">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="P53" s="98">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Q53" s="98">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="R53" s="98">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="S53" s="98">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="T53" s="98">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="U53" s="98">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="V53" s="98">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
     </row>
@@ -25685,71 +25690,71 @@
       <c r="D56" s="57"/>
       <c r="E56" s="79"/>
       <c r="F56" s="174">
-        <f t="shared" ref="F56:V56" si="53">F9</f>
+        <f t="shared" ref="F56:V56" si="54">F9</f>
         <v>41906</v>
       </c>
       <c r="G56" s="174">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>42271</v>
       </c>
       <c r="H56" s="174">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>42637</v>
       </c>
       <c r="I56" s="174">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>43002</v>
       </c>
       <c r="J56" s="174">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>43367</v>
       </c>
       <c r="K56" s="174">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>43732</v>
       </c>
       <c r="L56" s="175">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>44098</v>
       </c>
       <c r="M56" s="175">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>44463</v>
       </c>
       <c r="N56" s="175">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>44828</v>
       </c>
       <c r="O56" s="175">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>45193</v>
       </c>
       <c r="P56" s="175">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>45559</v>
       </c>
       <c r="Q56" s="175">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>45924</v>
       </c>
       <c r="R56" s="175">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>46289</v>
       </c>
       <c r="S56" s="175">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>46654</v>
       </c>
       <c r="T56" s="175">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>47020</v>
       </c>
       <c r="U56" s="175">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>47385</v>
       </c>
       <c r="V56" s="175">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>47750</v>
       </c>
     </row>
@@ -25782,71 +25787,71 @@
       <c r="D58" s="172"/>
       <c r="E58" s="172"/>
       <c r="F58" s="177">
-        <f t="shared" ref="F58:O58" si="54">F11</f>
+        <f t="shared" ref="F58:O58" si="55">F11</f>
         <v>182795</v>
       </c>
       <c r="G58" s="177">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>233715</v>
       </c>
       <c r="H58" s="177">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>215639</v>
       </c>
       <c r="I58" s="177">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>229234</v>
       </c>
       <c r="J58" s="177">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>265595</v>
       </c>
       <c r="K58" s="177">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>260174</v>
       </c>
       <c r="L58" s="177">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>274515</v>
       </c>
       <c r="M58" s="177">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>365817</v>
       </c>
       <c r="N58" s="177">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>395328</v>
       </c>
       <c r="O58" s="177">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>383285</v>
       </c>
       <c r="P58" s="177">
-        <f t="shared" ref="P58:V58" si="55">P11</f>
+        <f t="shared" ref="P58:V58" si="56">P11</f>
         <v>391035</v>
       </c>
       <c r="Q58" s="177">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>402766.05</v>
       </c>
       <c r="R58" s="177">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>413842.11637500004</v>
       </c>
       <c r="S58" s="177">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>424188.16928437498</v>
       </c>
       <c r="T58" s="177">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>433732.4030932734</v>
       </c>
       <c r="U58" s="177">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>442407.05115513888</v>
       </c>
       <c r="V58" s="177">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>450149.17455035384</v>
       </c>
     </row>
@@ -25861,67 +25866,67 @@
         <v>n.a.</v>
       </c>
       <c r="G59" s="178">
-        <f t="shared" ref="G59:V59" si="56">IF(ISERROR(G58/F58-1),"n.a.",G58/F58-1)</f>
+        <f t="shared" ref="G59:V59" si="57">IF(ISERROR(G58/F58-1),"n.a.",G58/F58-1)</f>
         <v>0.27856341803659834</v>
       </c>
       <c r="H59" s="178">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>-7.7342061913013738E-2</v>
       </c>
       <c r="I59" s="178">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>6.304518199398057E-2</v>
       </c>
       <c r="J59" s="178">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.15861957650261305</v>
       </c>
       <c r="K59" s="178">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>-2.04107758052674E-2</v>
       </c>
       <c r="L59" s="178">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>5.5120803769784787E-2</v>
       </c>
       <c r="M59" s="178">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.33259384733074704</v>
       </c>
       <c r="N59" s="178">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>8.0671483282624967E-2</v>
       </c>
       <c r="O59" s="178">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>-3.0463311478063804E-2</v>
       </c>
       <c r="P59" s="178">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>2.021994077514111E-2</v>
       </c>
       <c r="Q59" s="178">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="R59" s="178">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>2.750000000000008E-2</v>
       </c>
       <c r="S59" s="178">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>2.4999999999999911E-2</v>
       </c>
       <c r="T59" s="178">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>2.2499999999999964E-2</v>
       </c>
       <c r="U59" s="178">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="V59" s="178">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>1.7500000000000071E-2</v>
       </c>
     </row>
@@ -25932,72 +25937,72 @@
       <c r="D60" s="172"/>
       <c r="E60" s="172"/>
       <c r="F60" s="177">
-        <f t="shared" ref="F60:P60" si="57">F14</f>
+        <f t="shared" ref="F60:P60" si="58">F14</f>
         <v>52503</v>
       </c>
       <c r="G60" s="177">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>71230</v>
       </c>
       <c r="H60" s="177">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>60024</v>
       </c>
       <c r="I60" s="177">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>61344</v>
       </c>
       <c r="J60" s="177">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>70898</v>
       </c>
       <c r="K60" s="177">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>63930</v>
       </c>
       <c r="L60" s="177">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>66288</v>
       </c>
       <c r="M60" s="177">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>108949</v>
       </c>
       <c r="N60" s="177">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>119437</v>
       </c>
       <c r="O60" s="177">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>114301</v>
       </c>
       <c r="P60" s="177">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>123216</v>
       </c>
       <c r="Q60" s="177">
-        <f t="shared" ref="Q60:V60" si="58">Q14</f>
-        <v>133073.28</v>
+        <f t="shared" ref="Q60:V60" si="59">Q14</f>
+        <v>124448.16</v>
       </c>
       <c r="R60" s="177">
-        <f t="shared" si="58"/>
-        <v>143719.14240000001</v>
+        <f t="shared" si="59"/>
+        <v>126314.88239999999</v>
       </c>
       <c r="S60" s="177">
-        <f t="shared" si="58"/>
-        <v>155216.67379200002</v>
+        <f t="shared" si="59"/>
+        <v>128841.18004799999</v>
       </c>
       <c r="T60" s="177">
-        <f t="shared" si="58"/>
-        <v>167634.00769536002</v>
+        <f t="shared" si="59"/>
+        <v>132062.20954919999</v>
       </c>
       <c r="U60" s="177">
-        <f t="shared" si="58"/>
-        <v>181044.72831098884</v>
+        <f t="shared" si="59"/>
+        <v>136024.07583567599</v>
       </c>
       <c r="V60" s="177">
-        <f t="shared" si="58"/>
-        <v>195528.30657586796</v>
+        <f t="shared" si="59"/>
+        <v>140784.91848992463</v>
       </c>
     </row>
     <row r="61" spans="2:22">
@@ -26011,68 +26016,68 @@
         <v>n.a.</v>
       </c>
       <c r="G61" s="178">
-        <f t="shared" ref="G61:V61" si="59">IF(ISERROR(G60/F60-1),"n.a.",G60/F60-1)</f>
+        <f t="shared" ref="G61:V61" si="60">IF(ISERROR(G60/F60-1),"n.a.",G60/F60-1)</f>
         <v>0.35668437994019397</v>
       </c>
       <c r="H61" s="178">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>-0.15732135336234732</v>
       </c>
       <c r="I61" s="178">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>2.1991203518592517E-2</v>
       </c>
       <c r="J61" s="178">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0.15574465310380803</v>
       </c>
       <c r="K61" s="178">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>-9.8282038985584963E-2</v>
       </c>
       <c r="L61" s="178">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>3.6884091975598388E-2</v>
       </c>
       <c r="M61" s="178">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0.64357048032826447</v>
       </c>
       <c r="N61" s="178">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>9.6265225013538513E-2</v>
       </c>
       <c r="O61" s="178">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>-4.3001749876503959E-2</v>
       </c>
       <c r="P61" s="178">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>7.7995818059334532E-2</v>
       </c>
       <c r="Q61" s="178">
-        <f t="shared" si="59"/>
-        <v>8.0000000000000071E-2</v>
+        <f t="shared" si="60"/>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="R61" s="178">
-        <f t="shared" si="59"/>
-        <v>8.0000000000000071E-2</v>
+        <f t="shared" si="60"/>
+        <v>1.4999999999999902E-2</v>
       </c>
       <c r="S61" s="178">
-        <f t="shared" si="59"/>
-        <v>8.0000000000000071E-2</v>
+        <f t="shared" si="60"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="T61" s="178">
-        <f t="shared" si="59"/>
-        <v>8.0000000000000071E-2</v>
+        <f t="shared" si="60"/>
+        <v>2.4999999999999911E-2</v>
       </c>
       <c r="U61" s="178">
-        <f t="shared" si="59"/>
-        <v>8.0000000000000071E-2</v>
+        <f t="shared" si="60"/>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="V61" s="178">
-        <f t="shared" si="59"/>
-        <v>8.0000000000000071E-2</v>
+        <f t="shared" si="60"/>
+        <v>3.499999999999992E-2</v>
       </c>
     </row>
     <row r="62" spans="2:22">
@@ -26086,7 +26091,7 @@
         <v>0.28722339232473537</v>
       </c>
       <c r="G62" s="180">
-        <f t="shared" ref="G62" si="60">G60/G$58</f>
+        <f t="shared" ref="G62" si="61">G60/G$58</f>
         <v>0.30477290717326661</v>
       </c>
       <c r="H62" s="180">
@@ -26094,60 +26099,60 @@
         <v>0.27835410106706115</v>
       </c>
       <c r="I62" s="180">
-        <f t="shared" ref="I62" si="61">I60/I$58</f>
+        <f t="shared" ref="I62" si="62">I60/I$58</f>
         <v>0.26760428208729942</v>
       </c>
       <c r="J62" s="180">
-        <f t="shared" ref="J62:V62" si="62">J60/J$58</f>
+        <f t="shared" ref="J62:V62" si="63">J60/J$58</f>
         <v>0.26694026619477024</v>
       </c>
       <c r="K62" s="180">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.24572017188496928</v>
       </c>
       <c r="L62" s="180">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.24147314354406862</v>
       </c>
       <c r="M62" s="180">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.29782377527561593</v>
       </c>
       <c r="N62" s="180">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.3021212765096325</v>
       </c>
       <c r="O62" s="180">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.29821412265024722</v>
       </c>
       <c r="P62" s="180">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.31510222870075566</v>
       </c>
       <c r="Q62" s="180">
-        <f t="shared" si="62"/>
-        <v>0.33039845339496715</v>
+        <f t="shared" si="63"/>
+        <v>0.30898373882307112</v>
       </c>
       <c r="R62" s="180">
-        <f t="shared" si="62"/>
-        <v>0.34728012619616982</v>
+        <f t="shared" si="63"/>
+        <v>0.30522481256001666</v>
       </c>
       <c r="S62" s="180">
-        <f t="shared" si="62"/>
-        <v>0.36591466955303753</v>
+        <f t="shared" si="63"/>
+        <v>0.30373591103533371</v>
       </c>
       <c r="T62" s="180">
-        <f t="shared" si="62"/>
-        <v>0.38649177810980984</v>
+        <f t="shared" si="63"/>
+        <v>0.30447854162466215</v>
       </c>
       <c r="U62" s="180">
-        <f t="shared" si="62"/>
-        <v>0.40922658858685751</v>
+        <f t="shared" si="63"/>
+        <v>0.30746362536608041</v>
       </c>
       <c r="V62" s="180">
-        <f t="shared" si="62"/>
-        <v>0.43436335692757355</v>
+        <f t="shared" si="63"/>
+        <v>0.31275169754682375</v>
       </c>
     </row>
     <row r="63" spans="2:22">
@@ -26161,67 +26166,67 @@
         <v>7946</v>
       </c>
       <c r="G63" s="179">
-        <f t="shared" ref="G63:V63" si="63">+G66-G60</f>
+        <f t="shared" ref="G63:V63" si="64">+G66-G60</f>
         <v>11257</v>
       </c>
       <c r="H63" s="179">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>10505</v>
       </c>
       <c r="I63" s="179">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>10157</v>
       </c>
       <c r="J63" s="179">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>10903</v>
       </c>
       <c r="K63" s="179">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>12547</v>
       </c>
       <c r="L63" s="179">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>11056</v>
       </c>
       <c r="M63" s="179">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>11284</v>
       </c>
       <c r="N63" s="179">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>11104</v>
       </c>
       <c r="O63" s="179">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>11519</v>
       </c>
       <c r="P63" s="179">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>11445</v>
       </c>
       <c r="Q63" s="179">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>11513.670000000013</v>
       </c>
       <c r="R63" s="179">
-        <f t="shared" si="63"/>
-        <v>11582.752020000014</v>
+        <f t="shared" si="64"/>
+        <v>11582.75202</v>
       </c>
       <c r="S63" s="179">
-        <f t="shared" si="63"/>
-        <v>11652.248532119993</v>
+        <f t="shared" si="64"/>
+        <v>11652.248532120007</v>
       </c>
       <c r="T63" s="179">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>11722.162023312732</v>
       </c>
       <c r="U63" s="179">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>11792.494995452609</v>
       </c>
       <c r="V63" s="179">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>11863.249965425319</v>
       </c>
     </row>
@@ -26232,71 +26237,71 @@
       <c r="D64" s="168"/>
       <c r="E64" s="171"/>
       <c r="F64" s="180">
-        <f t="shared" ref="F64:V64" si="64">+F63/F58</f>
+        <f t="shared" ref="F64:V64" si="65">+F63/F58</f>
         <v>4.3469460324407121E-2</v>
       </c>
       <c r="G64" s="180">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>4.816550071668485E-2</v>
       </c>
       <c r="H64" s="180">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>4.8715677590788306E-2</v>
       </c>
       <c r="I64" s="180">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>4.4308435921372923E-2</v>
       </c>
       <c r="J64" s="180">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>4.1051224608897006E-2</v>
       </c>
       <c r="K64" s="180">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>4.8225418373857493E-2</v>
       </c>
       <c r="L64" s="180">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>4.0274666229532081E-2</v>
       </c>
       <c r="M64" s="180">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>3.084602410494865E-2</v>
       </c>
       <c r="N64" s="180">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>2.8088068641735471E-2</v>
       </c>
       <c r="O64" s="180">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>3.0053354553400212E-2</v>
       </c>
       <c r="P64" s="180">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>2.9268479803598143E-2</v>
       </c>
       <c r="Q64" s="180">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>2.8586495808174531E-2</v>
       </c>
       <c r="R64" s="180">
-        <f t="shared" si="64"/>
-        <v>2.7988335555254089E-2</v>
+        <f t="shared" si="65"/>
+        <v>2.7988335555254054E-2</v>
       </c>
       <c r="S64" s="180">
-        <f t="shared" si="64"/>
-        <v>2.746952738398592E-2</v>
+        <f t="shared" si="65"/>
+        <v>2.7469527383985951E-2</v>
       </c>
       <c r="T64" s="180">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>2.7026253836958319E-2</v>
       </c>
       <c r="U64" s="180">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>2.6655305254882421E-2</v>
       </c>
       <c r="V64" s="180">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>2.635404136256678E-2</v>
       </c>
     </row>
@@ -26307,71 +26312,71 @@
       <c r="D65" s="168"/>
       <c r="E65" s="171"/>
       <c r="F65" s="180">
-        <f t="shared" ref="F65:V65" si="65">+F63/F70</f>
+        <f t="shared" ref="F65:V65" si="66">+F63/F70</f>
         <v>-0.83021627834082123</v>
       </c>
       <c r="G65" s="180">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1.0008891259891526</v>
       </c>
       <c r="H65" s="180">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-0.82495680854405529</v>
       </c>
       <c r="I65" s="180">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-0.81575777046020403</v>
       </c>
       <c r="J65" s="180">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-0.81897393525125817</v>
       </c>
       <c r="K65" s="180">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1.1955216769890424</v>
       </c>
       <c r="L65" s="180">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1.5126556300451499</v>
       </c>
       <c r="M65" s="180">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1.0179521876409563</v>
       </c>
       <c r="N65" s="180">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1.0369816959282778</v>
       </c>
       <c r="O65" s="180">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1.0510995528789122</v>
       </c>
       <c r="P65" s="180">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1.2114957129247381</v>
       </c>
       <c r="Q65" s="180">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1.1948673403943997</v>
       </c>
       <c r="R65" s="180">
-        <f t="shared" si="65"/>
-        <v>-1.1784672004282022</v>
+        <f t="shared" si="66"/>
+        <v>-1.1784672004282006</v>
       </c>
       <c r="S65" s="180">
-        <f t="shared" si="65"/>
-        <v>-1.1622921604223229</v>
+        <f t="shared" si="66"/>
+        <v>-1.1622921604223242</v>
       </c>
       <c r="T65" s="180">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1.1463391307694693</v>
       </c>
       <c r="U65" s="180">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1.1306050642687118</v>
       </c>
       <c r="V65" s="180">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-1.1150869555434544</v>
       </c>
     </row>
@@ -26382,72 +26387,72 @@
       <c r="D66" s="172"/>
       <c r="E66" s="172"/>
       <c r="F66" s="177">
-        <f t="shared" ref="F66:V66" si="66">F23</f>
+        <f t="shared" ref="F66:V66" si="67">F23</f>
         <v>60449</v>
       </c>
       <c r="G66" s="177">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>82487</v>
       </c>
       <c r="H66" s="177">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>70529</v>
       </c>
       <c r="I66" s="177">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>71501</v>
       </c>
       <c r="J66" s="177">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>81801</v>
       </c>
       <c r="K66" s="177">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>76477</v>
       </c>
       <c r="L66" s="177">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>77344</v>
       </c>
       <c r="M66" s="177">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>120233</v>
       </c>
       <c r="N66" s="177">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>130541</v>
       </c>
       <c r="O66" s="177">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>125820</v>
       </c>
       <c r="P66" s="177">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>134661</v>
       </c>
       <c r="Q66" s="177">
-        <f t="shared" si="66"/>
-        <v>144586.95000000001</v>
+        <f t="shared" si="67"/>
+        <v>135961.83000000002</v>
       </c>
       <c r="R66" s="177">
-        <f t="shared" si="66"/>
-        <v>155301.89442000003</v>
+        <f t="shared" si="67"/>
+        <v>137897.63441999999</v>
       </c>
       <c r="S66" s="177">
-        <f t="shared" si="66"/>
-        <v>166868.92232412001</v>
+        <f t="shared" si="67"/>
+        <v>140493.42858012</v>
       </c>
       <c r="T66" s="177">
-        <f t="shared" si="66"/>
-        <v>179356.16971867275</v>
+        <f t="shared" si="67"/>
+        <v>143784.37157251273</v>
       </c>
       <c r="U66" s="177">
-        <f t="shared" si="66"/>
-        <v>192837.22330644145</v>
+        <f t="shared" si="67"/>
+        <v>147816.5708311286</v>
       </c>
       <c r="V66" s="177">
-        <f t="shared" si="66"/>
-        <v>207391.55654129328</v>
+        <f t="shared" si="67"/>
+        <v>152648.16845534995</v>
       </c>
     </row>
     <row r="67" spans="3:22">
@@ -26457,7 +26462,7 @@
       <c r="D67" s="168"/>
       <c r="E67" s="170"/>
       <c r="F67" s="180" t="str">
-        <f t="shared" ref="F67" si="67">IF(ISERROR(F66/C66-1),"n.a.",F66/C66-1)</f>
+        <f t="shared" ref="F67" si="68">IF(ISERROR(F66/C66-1),"n.a.",F66/C66-1)</f>
         <v>n.a.</v>
       </c>
       <c r="G67" s="180">
@@ -26469,60 +26474,60 @@
         <v>-0.1449682980348419</v>
       </c>
       <c r="I67" s="180">
-        <f t="shared" ref="I67:V67" si="68">IF(ISERROR(I66/H66-1),"n.a.",I66/H66-1)</f>
+        <f t="shared" ref="I67:V67" si="69">IF(ISERROR(I66/H66-1),"n.a.",I66/H66-1)</f>
         <v>1.378156502998773E-2</v>
       </c>
       <c r="J67" s="180">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.14405392931567396</v>
       </c>
       <c r="K67" s="180">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>-6.5084778914683228E-2</v>
       </c>
       <c r="L67" s="180">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1.1336741765498148E-2</v>
       </c>
       <c r="M67" s="180">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.55452265204799334</v>
       </c>
       <c r="N67" s="180">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>8.5733534054710514E-2</v>
       </c>
       <c r="O67" s="180">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>-3.6164883063558584E-2</v>
       </c>
       <c r="P67" s="180">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>7.0267048164043944E-2</v>
       </c>
       <c r="Q67" s="180">
-        <f t="shared" si="68"/>
-        <v>7.3710651190767917E-2</v>
+        <f t="shared" si="69"/>
+        <v>9.6600351995010936E-3</v>
       </c>
       <c r="R67" s="180">
-        <f t="shared" si="68"/>
-        <v>7.4107271921843632E-2</v>
+        <f t="shared" si="69"/>
+        <v>1.4237852050093647E-2</v>
       </c>
       <c r="S67" s="180">
-        <f t="shared" si="68"/>
-        <v>7.4480919549107405E-2</v>
+        <f t="shared" si="69"/>
+        <v>1.8824065916996924E-2</v>
       </c>
       <c r="T67" s="180">
-        <f t="shared" si="68"/>
-        <v>7.4832672379210097E-2</v>
+        <f t="shared" si="69"/>
+        <v>2.3424177384324896E-2</v>
       </c>
       <c r="U67" s="180">
-        <f t="shared" si="68"/>
-        <v>7.5163589905573147E-2</v>
+        <f t="shared" si="69"/>
+        <v>2.8043376442914436E-2</v>
       </c>
       <c r="V67" s="180">
-        <f t="shared" si="68"/>
-        <v>7.547470859255867E-2</v>
+        <f t="shared" si="69"/>
+        <v>3.2686441019804002E-2</v>
       </c>
     </row>
     <row r="68" spans="3:22">
@@ -26536,7 +26541,7 @@
         <v>0.3306928526491425</v>
       </c>
       <c r="G68" s="249">
-        <f t="shared" ref="G68" si="69">G66/G$58</f>
+        <f t="shared" ref="G68" si="70">G66/G$58</f>
         <v>0.35293840788995146</v>
       </c>
       <c r="H68" s="249">
@@ -26544,60 +26549,60 @@
         <v>0.32706977865784947</v>
       </c>
       <c r="I68" s="249">
-        <f t="shared" ref="I68:V68" si="70">I66/I$58</f>
+        <f t="shared" ref="I68:V68" si="71">I66/I$58</f>
         <v>0.31191271800867237</v>
       </c>
       <c r="J68" s="249">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.30799149080366722</v>
       </c>
       <c r="K68" s="249">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.29394559025882677</v>
       </c>
       <c r="L68" s="249">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.2817478097736007</v>
       </c>
       <c r="M68" s="249">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.32866979938056462</v>
       </c>
       <c r="N68" s="249">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.33020934515136796</v>
       </c>
       <c r="O68" s="249">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.32826747720364741</v>
       </c>
       <c r="P68" s="249">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.34437070850435381</v>
       </c>
       <c r="Q68" s="249">
-        <f t="shared" si="70"/>
-        <v>0.35898494920314167</v>
+        <f t="shared" si="71"/>
+        <v>0.33757023463124564</v>
       </c>
       <c r="R68" s="249">
-        <f t="shared" si="70"/>
-        <v>0.37526846175142392</v>
+        <f t="shared" si="71"/>
+        <v>0.3332131481152707</v>
       </c>
       <c r="S68" s="249">
-        <f t="shared" si="70"/>
-        <v>0.39338419693702348</v>
+        <f t="shared" si="71"/>
+        <v>0.33120543841931965</v>
       </c>
       <c r="T68" s="249">
-        <f t="shared" si="70"/>
-        <v>0.41351803194676817</v>
+        <f t="shared" si="71"/>
+        <v>0.33150479546162048</v>
       </c>
       <c r="U68" s="249">
-        <f t="shared" si="70"/>
-        <v>0.43588189384173992</v>
+        <f t="shared" si="71"/>
+        <v>0.33411893062096282</v>
       </c>
       <c r="V68" s="249">
-        <f t="shared" si="70"/>
-        <v>0.46071739829014036</v>
+        <f t="shared" si="71"/>
+        <v>0.3391057389093905</v>
       </c>
     </row>
     <row r="69" spans="3:22">
@@ -26607,72 +26612,72 @@
       <c r="D69" s="168"/>
       <c r="E69" s="168"/>
       <c r="F69" s="179">
-        <f t="shared" ref="F69:V69" si="71">F14</f>
+        <f t="shared" ref="F69:V69" si="72">F14</f>
         <v>52503</v>
       </c>
       <c r="G69" s="179">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>71230</v>
       </c>
       <c r="H69" s="179">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>60024</v>
       </c>
       <c r="I69" s="179">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>61344</v>
       </c>
       <c r="J69" s="179">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>70898</v>
       </c>
       <c r="K69" s="179">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>63930</v>
       </c>
       <c r="L69" s="179">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>66288</v>
       </c>
       <c r="M69" s="179">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>108949</v>
       </c>
       <c r="N69" s="179">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>119437</v>
       </c>
       <c r="O69" s="179">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>114301</v>
       </c>
       <c r="P69" s="179">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>123216</v>
       </c>
       <c r="Q69" s="179">
-        <f t="shared" si="71"/>
-        <v>133073.28</v>
+        <f t="shared" si="72"/>
+        <v>124448.16</v>
       </c>
       <c r="R69" s="179">
-        <f t="shared" si="71"/>
-        <v>143719.14240000001</v>
+        <f t="shared" si="72"/>
+        <v>126314.88239999999</v>
       </c>
       <c r="S69" s="179">
-        <f t="shared" si="71"/>
-        <v>155216.67379200002</v>
+        <f t="shared" si="72"/>
+        <v>128841.18004799999</v>
       </c>
       <c r="T69" s="179">
-        <f t="shared" si="71"/>
-        <v>167634.00769536002</v>
+        <f t="shared" si="72"/>
+        <v>132062.20954919999</v>
       </c>
       <c r="U69" s="179">
-        <f t="shared" si="71"/>
-        <v>181044.72831098884</v>
+        <f t="shared" si="72"/>
+        <v>136024.07583567599</v>
       </c>
       <c r="V69" s="179">
-        <f t="shared" si="71"/>
-        <v>195528.30657586796</v>
+        <f t="shared" si="72"/>
+        <v>140784.91848992463</v>
       </c>
     </row>
     <row r="70" spans="3:22">
@@ -26682,71 +26687,71 @@
       <c r="D70" s="172"/>
       <c r="E70" s="173"/>
       <c r="F70" s="177">
-        <f t="shared" ref="F70:V70" si="72">F38</f>
+        <f t="shared" ref="F70:V70" si="73">F38</f>
         <v>-9571</v>
       </c>
       <c r="G70" s="177">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>-11247</v>
       </c>
       <c r="H70" s="177">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>-12734</v>
       </c>
       <c r="I70" s="177">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>-12451</v>
       </c>
       <c r="J70" s="177">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>-13313</v>
       </c>
       <c r="K70" s="177">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>-10495</v>
       </c>
       <c r="L70" s="177">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>-7309</v>
       </c>
       <c r="M70" s="177">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>-11085</v>
       </c>
       <c r="N70" s="177">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>-10708</v>
       </c>
       <c r="O70" s="177">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>-10959</v>
       </c>
       <c r="P70" s="177">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>-9447</v>
       </c>
       <c r="Q70" s="177">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>-9635.94</v>
       </c>
       <c r="R70" s="177">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>-9828.6588000000011</v>
       </c>
       <c r="S70" s="177">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>-10025.231976000001</v>
       </c>
       <c r="T70" s="177">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>-10225.736615520002</v>
       </c>
       <c r="U70" s="177">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>-10430.251347830403</v>
       </c>
       <c r="V70" s="177">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>-10638.85637478701</v>
       </c>
     </row>
@@ -26761,67 +26766,67 @@
         <v>5.235920019694193E-2</v>
       </c>
       <c r="G71" s="178">
-        <f t="shared" ref="G71:V71" si="73">IF(ISERROR(-G70/G$58),"n.a.",-G70/G$58)</f>
+        <f t="shared" ref="G71:V71" si="74">IF(ISERROR(-G70/G$58),"n.a.",-G70/G$58)</f>
         <v>4.812271356138887E-2</v>
       </c>
       <c r="H71" s="178">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>5.9052397757362998E-2</v>
       </c>
       <c r="I71" s="178">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>5.4315677430049641E-2</v>
       </c>
       <c r="J71" s="178">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>5.0125190609762983E-2</v>
       </c>
       <c r="K71" s="178">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>4.033838892433525E-2</v>
       </c>
       <c r="L71" s="178">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>2.6625138881299748E-2</v>
       </c>
       <c r="M71" s="178">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>3.0302036264033657E-2</v>
       </c>
       <c r="N71" s="178">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>2.7086368787437268E-2</v>
       </c>
       <c r="O71" s="178">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>2.859230076835775E-2</v>
       </c>
       <c r="P71" s="178">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>2.415896275269477E-2</v>
       </c>
       <c r="Q71" s="178">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>2.3924409716260843E-2</v>
       </c>
       <c r="R71" s="178">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>2.3749778988404923E-2</v>
       </c>
       <c r="S71" s="178">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>2.3633926407973682E-2</v>
       </c>
       <c r="T71" s="178">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>2.3576141746829496E-2</v>
       </c>
       <c r="U71" s="178">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>2.3576141746829496E-2</v>
       </c>
       <c r="V71" s="178">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>2.3634068385028094E-2</v>
       </c>
     </row>
@@ -26832,71 +26837,71 @@
       <c r="D72" s="168"/>
       <c r="E72" s="170"/>
       <c r="F72" s="179">
-        <f t="shared" ref="F72:V72" si="74">F43</f>
+        <f t="shared" ref="F72:V72" si="75">F43</f>
         <v>19769</v>
       </c>
       <c r="G72" s="179">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>18729</v>
       </c>
       <c r="H72" s="179">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>-4218</v>
       </c>
       <c r="I72" s="179">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>23853</v>
       </c>
       <c r="J72" s="179">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>60548</v>
       </c>
       <c r="K72" s="179">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>-11008</v>
       </c>
       <c r="L72" s="179">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>8180</v>
       </c>
       <c r="M72" s="179">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>44513</v>
       </c>
       <c r="N72" s="179">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>29956</v>
       </c>
       <c r="O72" s="179">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>-2507</v>
       </c>
       <c r="P72" s="179">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>39493</v>
       </c>
       <c r="Q72" s="179">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>39493</v>
       </c>
       <c r="R72" s="179">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>39493</v>
       </c>
       <c r="S72" s="179">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>39493</v>
       </c>
       <c r="T72" s="179">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>39493</v>
       </c>
       <c r="U72" s="179">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>39493</v>
       </c>
       <c r="V72" s="179">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>39493</v>
       </c>
     </row>
@@ -26907,71 +26912,71 @@
       <c r="D73" s="168"/>
       <c r="E73" s="170"/>
       <c r="F73" s="180">
-        <f t="shared" ref="F73:V73" si="75">+F72/F58</f>
+        <f t="shared" ref="F73:V73" si="76">+F72/F58</f>
         <v>0.10814847233239422</v>
       </c>
       <c r="G73" s="180">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>8.0136063153841211E-2</v>
       </c>
       <c r="H73" s="180">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>-1.9560469117367453E-2</v>
       </c>
       <c r="I73" s="180">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.10405524485896507</v>
       </c>
       <c r="J73" s="180">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.22797115909561549</v>
       </c>
       <c r="K73" s="180">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>-4.2310146286715811E-2</v>
       </c>
       <c r="L73" s="180">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>2.9798007394860025E-2</v>
       </c>
       <c r="M73" s="180">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.12168105910878936</v>
       </c>
       <c r="N73" s="180">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>7.5775052614537805E-2</v>
       </c>
       <c r="O73" s="180">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>-6.5408247126811639E-3</v>
       </c>
       <c r="P73" s="180">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.10099607452018361</v>
       </c>
       <c r="Q73" s="180">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>9.8054441281731672E-2</v>
       </c>
       <c r="R73" s="180">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>9.5430113169568523E-2</v>
       </c>
       <c r="S73" s="180">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>9.3102549433725396E-2</v>
       </c>
       <c r="T73" s="180">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>9.1053838076993063E-2</v>
       </c>
       <c r="U73" s="180">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>8.9268468702934367E-2</v>
       </c>
       <c r="V73" s="180">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>8.7733138774382671E-2</v>
       </c>
     </row>
@@ -26982,71 +26987,71 @@
       <c r="D74" s="168"/>
       <c r="E74" s="170"/>
       <c r="F74" s="179">
-        <f t="shared" ref="F74:V74" si="76">+F47</f>
+        <f t="shared" ref="F74:V74" si="77">+F47</f>
         <v>-60128</v>
       </c>
       <c r="G74" s="179">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>-73450</v>
       </c>
       <c r="H74" s="179">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>-66460</v>
       </c>
       <c r="I74" s="179">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>-64420</v>
       </c>
       <c r="J74" s="179">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>-71810</v>
       </c>
       <c r="K74" s="179">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>-44900</v>
       </c>
       <c r="L74" s="179">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>-91109</v>
       </c>
       <c r="M74" s="179">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>-108498</v>
       </c>
       <c r="N74" s="179">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>-133103</v>
       </c>
       <c r="O74" s="179">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>-104783</v>
       </c>
       <c r="P74" s="179">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>-119048</v>
       </c>
       <c r="Q74" s="179">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>-120238.48</v>
       </c>
       <c r="R74" s="179">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>-121440.8648</v>
       </c>
       <c r="S74" s="179">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>-122655.27344799999</v>
       </c>
       <c r="T74" s="179">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>-123881.82618248</v>
       </c>
       <c r="U74" s="179">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>-125120.64444430479</v>
       </c>
       <c r="V74" s="179">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>-126371.85088874784</v>
       </c>
     </row>
@@ -27061,67 +27066,67 @@
         <v>0.32893678711124485</v>
       </c>
       <c r="G75" s="178">
-        <f t="shared" ref="G75:V75" si="77">IF(ISERROR(-G74/G$58),"n.a.",-G74/G$58)</f>
+        <f t="shared" ref="G75:V75" si="78">IF(ISERROR(-G74/G$58),"n.a.",-G74/G$58)</f>
         <v>0.31427165564897419</v>
       </c>
       <c r="H75" s="178">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>0.30820027917027998</v>
       </c>
       <c r="I75" s="178">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>0.28102288491236027</v>
       </c>
       <c r="J75" s="178">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>0.2703740657768407</v>
       </c>
       <c r="K75" s="178">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>0.17257681397833757</v>
       </c>
       <c r="L75" s="178">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>0.33189078921006138</v>
       </c>
       <c r="M75" s="178">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>0.29659091841002466</v>
       </c>
       <c r="N75" s="178">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>0.33669003966326694</v>
       </c>
       <c r="O75" s="178">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>0.27338142635375767</v>
       </c>
       <c r="P75" s="178">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>0.30444333627424652</v>
       </c>
       <c r="Q75" s="178">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>0.29853181518154276</v>
       </c>
       <c r="R75" s="178">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>0.29344733171129744</v>
       </c>
       <c r="S75" s="178">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>0.28915298051552241</v>
       </c>
       <c r="T75" s="178">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>0.28561810300310769</v>
       </c>
       <c r="U75" s="178">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>0.28281792552268509</v>
       </c>
       <c r="V75" s="178">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>0.28073327250900432</v>
       </c>
     </row>
@@ -27132,71 +27137,71 @@
       <c r="D76" s="168"/>
       <c r="E76" s="170"/>
       <c r="F76" s="179">
-        <f t="shared" ref="F76:V76" si="78">+F51</f>
+        <f t="shared" ref="F76:V76" si="79">+F51</f>
         <v>0</v>
       </c>
       <c r="G76" s="179">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="H76" s="179">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="I76" s="179">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="J76" s="179">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="K76" s="179">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="L76" s="179">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="M76" s="179">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="N76" s="179">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="O76" s="179">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="P76" s="179">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="Q76" s="179">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="R76" s="179">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="S76" s="179">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="T76" s="179">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="U76" s="179">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="V76" s="179">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
     </row>
@@ -27211,67 +27216,67 @@
         <v>0</v>
       </c>
       <c r="G77" s="253">
-        <f t="shared" ref="G77:V77" si="79">IF(ISERROR(-G76/G$58),"n.a.",-G76/G$58)</f>
+        <f t="shared" ref="G77:V77" si="80">IF(ISERROR(-G76/G$58),"n.a.",-G76/G$58)</f>
         <v>0</v>
       </c>
       <c r="H77" s="253">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="I77" s="253">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="J77" s="253">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="K77" s="253">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="L77" s="253">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="M77" s="253">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="N77" s="253">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="O77" s="253">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="P77" s="253">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="Q77" s="253">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="R77" s="253">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="S77" s="253">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="T77" s="253">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="U77" s="253">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="V77" s="253">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
     </row>
@@ -27308,8 +27313,8 @@
   </sheetPr>
   <dimension ref="C2:U127"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.95"/>
@@ -27422,7 +27427,7 @@
         <v>58</v>
       </c>
       <c r="F11" s="262">
-        <v>0.08</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="12" spans="4:21" ht="12.75" customHeight="1">
@@ -27881,27 +27886,27 @@
       </c>
       <c r="N27" s="265">
         <f>' Financials'!Q23</f>
-        <v>144586.95000000001</v>
+        <v>135961.83000000002</v>
       </c>
       <c r="O27" s="265">
         <f>' Financials'!R23</f>
-        <v>155301.89442000003</v>
+        <v>137897.63441999999</v>
       </c>
       <c r="P27" s="265">
         <f>' Financials'!S23</f>
-        <v>166868.92232412001</v>
+        <v>140493.42858012</v>
       </c>
       <c r="Q27" s="265">
         <f>' Financials'!T23</f>
-        <v>179356.16971867275</v>
+        <v>143784.37157251273</v>
       </c>
       <c r="R27" s="265">
         <f>' Financials'!U23</f>
-        <v>192837.22330644145</v>
+        <v>147816.5708311286</v>
       </c>
       <c r="S27" s="265">
         <f>' Financials'!V23</f>
-        <v>207391.55654129328</v>
+        <v>152648.16845534995</v>
       </c>
       <c r="T27" s="106"/>
     </row>
@@ -27945,27 +27950,27 @@
       </c>
       <c r="N28" s="51">
         <f t="shared" si="8"/>
-        <v>0.35898494920314167</v>
+        <v>0.33757023463124564</v>
       </c>
       <c r="O28" s="51">
         <f t="shared" si="8"/>
-        <v>0.37526846175142392</v>
+        <v>0.3332131481152707</v>
       </c>
       <c r="P28" s="51">
         <f t="shared" si="8"/>
-        <v>0.39338419693702348</v>
+        <v>0.33120543841931965</v>
       </c>
       <c r="Q28" s="51">
         <f t="shared" si="8"/>
-        <v>0.41351803194676817</v>
+        <v>0.33150479546162048</v>
       </c>
       <c r="R28" s="51">
         <f t="shared" si="8"/>
-        <v>0.43588189384173992</v>
+        <v>0.33411893062096282</v>
       </c>
       <c r="S28" s="51">
         <f t="shared" ref="S28" si="9">IF(ISERROR(S27/S$24),"n.a.",(S27/S$24))</f>
-        <v>0.46071739829014036</v>
+        <v>0.3391057389093905</v>
       </c>
       <c r="T28" s="51"/>
     </row>
@@ -28006,27 +28011,27 @@
       </c>
       <c r="N29" s="51">
         <f t="shared" si="10"/>
-        <v>7.3710651190767917E-2</v>
+        <v>9.6600351995010936E-3</v>
       </c>
       <c r="O29" s="51">
         <f t="shared" si="10"/>
-        <v>7.4107271921843632E-2</v>
+        <v>1.4237852050093647E-2</v>
       </c>
       <c r="P29" s="51">
         <f t="shared" si="10"/>
-        <v>7.4480919549107405E-2</v>
+        <v>1.8824065916996924E-2</v>
       </c>
       <c r="Q29" s="51">
         <f t="shared" si="10"/>
-        <v>7.4832672379210097E-2</v>
+        <v>2.3424177384324896E-2</v>
       </c>
       <c r="R29" s="51">
         <f t="shared" si="10"/>
-        <v>7.5163589905573147E-2</v>
+        <v>2.8043376442914436E-2</v>
       </c>
       <c r="S29" s="51">
         <f t="shared" si="10"/>
-        <v>7.547470859255867E-2</v>
+        <v>3.2686441019804002E-2</v>
       </c>
       <c r="T29" s="51"/>
     </row>
@@ -28302,27 +28307,27 @@
       </c>
       <c r="N35" s="39">
         <f t="shared" si="19"/>
-        <v>133073.28</v>
+        <v>124448.16000000002</v>
       </c>
       <c r="O35" s="39">
         <f t="shared" si="19"/>
-        <v>143719.14240000001</v>
+        <v>126314.88239999999</v>
       </c>
       <c r="P35" s="39">
         <f t="shared" si="19"/>
-        <v>155216.67379200002</v>
+        <v>128841.18004800001</v>
       </c>
       <c r="Q35" s="39">
         <f t="shared" si="19"/>
-        <v>167634.00769536002</v>
+        <v>132062.20954919999</v>
       </c>
       <c r="R35" s="39">
         <f t="shared" si="19"/>
-        <v>181044.72831098884</v>
+        <v>136024.07583567599</v>
       </c>
       <c r="S35" s="39">
         <f t="shared" si="19"/>
-        <v>195528.30657586796</v>
+        <v>140784.91848992463</v>
       </c>
       <c r="T35" s="39"/>
     </row>
@@ -28366,27 +28371,27 @@
       </c>
       <c r="N36" s="51">
         <f t="shared" si="22"/>
-        <v>0.33039845339496715</v>
+        <v>0.30898373882307117</v>
       </c>
       <c r="O36" s="51">
         <f t="shared" si="22"/>
-        <v>0.34728012619616982</v>
+        <v>0.30522481256001666</v>
       </c>
       <c r="P36" s="51">
         <f t="shared" si="22"/>
-        <v>0.36591466955303753</v>
+        <v>0.30373591103533376</v>
       </c>
       <c r="Q36" s="51">
         <f t="shared" si="22"/>
-        <v>0.38649177810980984</v>
+        <v>0.30447854162466215</v>
       </c>
       <c r="R36" s="51">
         <f t="shared" si="22"/>
-        <v>0.40922658858685751</v>
+        <v>0.30746362536608041</v>
       </c>
       <c r="S36" s="51">
         <f t="shared" ref="S36" si="23">IF(ISERROR(S35/S$24),"n.a.",(S35/S$24))</f>
-        <v>0.43436335692757355</v>
+        <v>0.31275169754682375</v>
       </c>
       <c r="T36" s="51"/>
     </row>
@@ -28427,27 +28432,27 @@
       </c>
       <c r="N37" s="51">
         <f t="shared" si="24"/>
-        <v>8.0000000000000071E-2</v>
+        <v>1.0000000000000231E-2</v>
       </c>
       <c r="O37" s="51">
         <f t="shared" si="24"/>
-        <v>8.0000000000000071E-2</v>
+        <v>1.499999999999968E-2</v>
       </c>
       <c r="P37" s="51">
         <f t="shared" si="24"/>
-        <v>8.0000000000000071E-2</v>
+        <v>2.000000000000024E-2</v>
       </c>
       <c r="Q37" s="51">
         <f t="shared" si="24"/>
-        <v>8.0000000000000071E-2</v>
+        <v>2.4999999999999911E-2</v>
       </c>
       <c r="R37" s="51">
         <f t="shared" si="24"/>
-        <v>8.0000000000000071E-2</v>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="S37" s="51">
         <f t="shared" si="24"/>
-        <v>8.0000000000000071E-2</v>
+        <v>3.499999999999992E-2</v>
       </c>
       <c r="T37" s="51"/>
     </row>
@@ -28500,27 +28505,27 @@
       </c>
       <c r="N39" s="2">
         <f t="shared" si="25"/>
-        <v>-33268.32</v>
+        <v>-31112.040000000005</v>
       </c>
       <c r="O39" s="2">
         <f t="shared" si="25"/>
-        <v>-35929.785600000003</v>
+        <v>-31578.720599999997</v>
       </c>
       <c r="P39" s="2">
         <f t="shared" si="25"/>
-        <v>-38804.168448000004</v>
+        <v>-32210.295012000002</v>
       </c>
       <c r="Q39" s="2">
         <f t="shared" si="25"/>
-        <v>-41908.501923840005</v>
+        <v>-33015.552387299998</v>
       </c>
       <c r="R39" s="2">
         <f t="shared" si="25"/>
-        <v>-45261.182077747209</v>
+        <v>-34006.018958918998</v>
       </c>
       <c r="S39" s="2">
         <f t="shared" ref="S39" si="26">-S35*S40</f>
-        <v>-48882.07664396699</v>
+        <v>-35196.229622481158</v>
       </c>
       <c r="T39" s="2"/>
     </row>
@@ -28630,27 +28635,27 @@
       </c>
       <c r="N42" s="2">
         <f t="shared" si="28"/>
-        <v>99804.959999999992</v>
+        <v>93336.12000000001</v>
       </c>
       <c r="O42" s="2">
         <f t="shared" si="28"/>
-        <v>107789.35680000001</v>
+        <v>94736.161799999987</v>
       </c>
       <c r="P42" s="2">
         <f t="shared" si="28"/>
-        <v>116412.505344</v>
+        <v>96630.885036000007</v>
       </c>
       <c r="Q42" s="2">
         <f t="shared" si="28"/>
-        <v>125725.50577152002</v>
+        <v>99046.657161899988</v>
       </c>
       <c r="R42" s="2">
         <f t="shared" si="28"/>
-        <v>135783.54623324162</v>
+        <v>102018.05687675699</v>
       </c>
       <c r="S42" s="2">
         <f t="shared" ref="S42" si="29">S35+S39</f>
-        <v>146646.22993190098</v>
+        <v>105588.68886744347</v>
       </c>
       <c r="T42" s="2"/>
     </row>
@@ -28685,27 +28690,27 @@
       </c>
       <c r="N43" s="51">
         <f t="shared" si="31"/>
-        <v>0.24779884004622532</v>
+        <v>0.23173780411730335</v>
       </c>
       <c r="O43" s="51">
         <f t="shared" si="31"/>
-        <v>0.26046009464712738</v>
+        <v>0.22891860942001249</v>
       </c>
       <c r="P43" s="51">
         <f t="shared" si="31"/>
-        <v>0.27443600216477815</v>
+        <v>0.22780193327650031</v>
       </c>
       <c r="Q43" s="51">
         <f t="shared" si="31"/>
-        <v>0.28986883358235738</v>
+        <v>0.22835890621849661</v>
       </c>
       <c r="R43" s="51">
         <f t="shared" si="31"/>
-        <v>0.30691994144014312</v>
+        <v>0.2305977190245603</v>
       </c>
       <c r="S43" s="51">
         <f t="shared" ref="S43" si="32">IF(ISERROR(S42/S$24),"n.a.",(S42/S$24))</f>
-        <v>0.32577251769568016</v>
+        <v>0.23456377316011781</v>
       </c>
       <c r="T43" s="51"/>
     </row>
@@ -28740,27 +28745,27 @@
       </c>
       <c r="N44" s="51">
         <f t="shared" si="33"/>
-        <v>7.9999999999999849E-2</v>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="O44" s="51">
         <f t="shared" si="33"/>
-        <v>8.0000000000000071E-2</v>
+        <v>1.499999999999968E-2</v>
       </c>
       <c r="P44" s="51">
         <f t="shared" si="33"/>
-        <v>7.9999999999999849E-2</v>
+        <v>2.000000000000024E-2</v>
       </c>
       <c r="Q44" s="51">
         <f t="shared" si="33"/>
-        <v>8.0000000000000071E-2</v>
+        <v>2.4999999999999911E-2</v>
       </c>
       <c r="R44" s="51">
         <f t="shared" si="33"/>
-        <v>8.0000000000000071E-2</v>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="S44" s="51">
         <f t="shared" si="33"/>
-        <v>8.0000000000000293E-2</v>
+        <v>3.499999999999992E-2</v>
       </c>
       <c r="T44" s="51"/>
     </row>
@@ -29507,27 +29512,27 @@
       </c>
       <c r="N61" s="107">
         <f t="shared" si="48"/>
-        <v>58434.229999999996</v>
+        <v>51965.390000000014</v>
       </c>
       <c r="O61" s="107">
         <f t="shared" si="48"/>
-        <v>66542.263580000013</v>
+        <v>53489.068579999992</v>
       </c>
       <c r="P61" s="107">
         <f t="shared" si="48"/>
-        <v>75292.488787880007</v>
+        <v>55510.868479879995</v>
       </c>
       <c r="Q61" s="107">
         <f t="shared" si="48"/>
-        <v>84736.080363727306</v>
+        <v>58057.23175410727</v>
       </c>
       <c r="R61" s="107">
         <f t="shared" si="48"/>
-        <v>94928.302585619444</v>
+        <v>61162.813229134801</v>
       </c>
       <c r="S61" s="107">
         <f t="shared" si="48"/>
-        <v>105928.83634126268</v>
+        <v>64871.295276805162</v>
       </c>
       <c r="T61" s="107"/>
     </row>
@@ -29561,7 +29566,7 @@
       </c>
       <c r="N63" s="2">
         <f t="shared" si="49"/>
-        <v>-30117.026139630383</v>
+        <v>-26782.983347022589</v>
       </c>
       <c r="O63" s="2">
         <f t="shared" si="49"/>
@@ -29615,27 +29620,27 @@
       </c>
       <c r="N64" s="107">
         <f t="shared" si="50"/>
-        <v>28317.203860369613</v>
+        <v>25182.406652977425</v>
       </c>
       <c r="O64" s="107">
         <f t="shared" si="50"/>
-        <v>66542.263580000013</v>
+        <v>53489.068579999992</v>
       </c>
       <c r="P64" s="107">
         <f>P63+P61</f>
-        <v>75292.488787880007</v>
+        <v>55510.868479879995</v>
       </c>
       <c r="Q64" s="107">
         <f>Q63+Q61</f>
-        <v>84736.080363727306</v>
+        <v>58057.23175410727</v>
       </c>
       <c r="R64" s="107">
         <f>R63+R61</f>
-        <v>94928.302585619444</v>
+        <v>61162.813229134801</v>
       </c>
       <c r="S64" s="107">
         <f>S63+S61</f>
-        <v>105928.83634126268</v>
+        <v>64871.295276805162</v>
       </c>
       <c r="T64" s="107"/>
     </row>
@@ -29706,47 +29711,47 @@
       <c r="H67" s="218"/>
       <c r="I67" s="101">
         <f>1/((1+$F$11)^(I66/365.25))</f>
-        <v>1.1897326522343881</v>
+        <v>1.1773352500658516</v>
       </c>
       <c r="J67" s="110">
         <f t="shared" ref="J67:Q67" si="52">1/((1+$F$11)^(J66/365.25))</f>
-        <v>1.1016043076244333</v>
+        <v>1.0951955814566061</v>
       </c>
       <c r="K67" s="110">
         <f t="shared" si="52"/>
-        <v>1.0200039885411418</v>
+        <v>1.0187865874014941</v>
       </c>
       <c r="L67" s="110">
         <f t="shared" si="52"/>
-        <v>0.9444481375380942</v>
+        <v>0.9477084533967387</v>
       </c>
       <c r="M67" s="110">
         <f t="shared" si="52"/>
-        <v>0.87448901623897612</v>
+        <v>0.88158925897371054</v>
       </c>
       <c r="N67" s="110">
         <f t="shared" si="52"/>
-        <v>0.80971205207312591</v>
+        <v>0.82008303160345153</v>
       </c>
       <c r="O67" s="110">
         <f t="shared" si="52"/>
-        <v>0.74973338154919067</v>
+        <v>0.76286793637530381</v>
       </c>
       <c r="P67" s="110">
         <f t="shared" si="52"/>
-        <v>0.6941975755085098</v>
+        <v>0.7096445919770269</v>
       </c>
       <c r="Q67" s="110">
         <f t="shared" si="52"/>
-        <v>0.64277553287824973</v>
+        <v>0.66013450416467623</v>
       </c>
       <c r="R67" s="110">
         <f>1/((1+$F$11)^(R66/365.25))</f>
-        <v>0.59516253044282386</v>
+        <v>0.61407860852528029</v>
       </c>
       <c r="S67" s="110">
         <f>1/((1+$F$11)^(S66/365.25))</f>
-        <v>0.55107641707668875</v>
+        <v>0.57123591490723746</v>
       </c>
       <c r="T67" s="110"/>
     </row>
@@ -29778,7 +29783,7 @@
       <c r="S69" s="57"/>
       <c r="T69" s="62">
         <f>S64*(1+F9)/(F11-F9)</f>
-        <v>3707509.2719441941</v>
+        <v>2724594.4016258176</v>
       </c>
     </row>
     <row r="70" spans="4:20">
@@ -29802,7 +29807,7 @@
       <c r="S70" s="35"/>
       <c r="T70" s="63">
         <f>S27*F10</f>
-        <v>3733048.0177432792</v>
+        <v>2747667.0321962992</v>
       </c>
     </row>
     <row r="71" spans="4:20">
@@ -29854,22 +29859,22 @@
       </c>
       <c r="H75" s="246">
         <f>SUMPRODUCT($I$64:$T$64,$I$67:$T$67)</f>
-        <v>294424.53229042614</v>
+        <v>213790.91821707453</v>
       </c>
       <c r="I75" s="49">
         <f>H75/$H$77</f>
-        <v>0.12595456968061947</v>
+        <v>0.12077374571392856</v>
       </c>
       <c r="L75" t="s">
         <v>80</v>
       </c>
       <c r="N75" s="39">
         <f>SUMPRODUCT($G$64:$T$64,$G$67:$T$67)</f>
-        <v>294424.53229042614</v>
+        <v>213790.91821707453</v>
       </c>
       <c r="O75" s="49">
         <f>N75/$N$77</f>
-        <v>0.11701181799794137</v>
+        <v>0.11245793998933899</v>
       </c>
     </row>
     <row r="76" spans="4:20">
@@ -29878,22 +29883,22 @@
       </c>
       <c r="H76" s="246">
         <f>T69*S67</f>
-        <v>2043120.9258616094</v>
+        <v>1556386.175763861</v>
       </c>
       <c r="I76" s="49">
         <f>H76/$H$77</f>
-        <v>0.87404543031938042</v>
+        <v>0.87922625428607137</v>
       </c>
       <c r="L76" t="s">
         <v>81</v>
       </c>
       <c r="N76" s="39">
         <f>T70*R67</f>
-        <v>2221770.3045046576</v>
+        <v>1687283.5478218899</v>
       </c>
       <c r="O76" s="49">
         <f>N76/$N$77</f>
-        <v>0.88298818200205864</v>
+        <v>0.88754206001066094</v>
       </c>
     </row>
     <row r="77" spans="4:20">
@@ -29903,7 +29908,7 @@
       <c r="G77" s="52"/>
       <c r="H77" s="247">
         <f>SUM(H75:H76)</f>
-        <v>2337545.4581520357</v>
+        <v>1770177.0939809356</v>
       </c>
       <c r="I77" s="53">
         <f>SUM(I75:I76)</f>
@@ -29915,11 +29920,11 @@
       <c r="M77" s="52"/>
       <c r="N77" s="47">
         <f>SUM(N75:N76)</f>
-        <v>2516194.8367950837</v>
+        <v>1901074.4660389645</v>
       </c>
       <c r="O77" s="53">
         <f>SUM(O75:O76)</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="78" spans="4:20">
@@ -29947,7 +29952,7 @@
       <c r="G79" s="52"/>
       <c r="H79" s="247">
         <f>H77+H78</f>
-        <v>2337631.4581520357</v>
+        <v>1770263.0939809356</v>
       </c>
       <c r="I79" s="53"/>
       <c r="L79" s="23" t="s">
@@ -29956,7 +29961,7 @@
       <c r="M79" s="52"/>
       <c r="N79" s="47">
         <f>N77+N78</f>
-        <v>2516280.8367950837</v>
+        <v>1901160.4660389645</v>
       </c>
       <c r="O79" s="53"/>
     </row>
@@ -29967,7 +29972,7 @@
       <c r="G80" s="277"/>
       <c r="H80" s="281">
         <f>H79/Assumptions!$D$17</f>
-        <v>155.90445899373321</v>
+        <v>118.06476550493102</v>
       </c>
       <c r="I80" s="282"/>
       <c r="L80" s="277" t="s">
@@ -29976,7 +29981,7 @@
       <c r="M80" s="277"/>
       <c r="N80" s="283">
         <f>N79/Assumptions!$D$17</f>
-        <v>167.81918345972281</v>
+        <v>126.79474896885183</v>
       </c>
       <c r="O80" s="282"/>
     </row>
@@ -29987,7 +29992,7 @@
       <c r="G81" s="40"/>
       <c r="H81" s="248">
         <f>H80/Assumptions!$D$16-1</f>
-        <v>-0.22435592540431237</v>
+        <v>-0.41261310694064168</v>
       </c>
       <c r="I81" s="70"/>
       <c r="L81" s="68" t="s">
@@ -29996,7 +30001,7 @@
       <c r="M81" s="40"/>
       <c r="N81" s="69">
         <f>N80/Assumptions!$D$16-1</f>
-        <v>-0.16507868925511038</v>
+        <v>-0.36918035338879684</v>
       </c>
       <c r="O81" s="70"/>
     </row>
@@ -30057,7 +30062,7 @@
         <v>89</v>
       </c>
       <c r="I87" s="302">
-        <v>5.0000000000000001E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="L87" s="25" t="s">
         <v>90</v>
@@ -30077,27 +30082,27 @@
         <v>92</v>
       </c>
       <c r="F88" s="304">
-        <v>0.08</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="G88" s="25" t="s">
         <v>93</v>
       </c>
       <c r="I88" s="302">
-        <v>2.5000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="L88" s="25" t="s">
         <v>92</v>
       </c>
       <c r="M88" s="305">
         <f>F88</f>
-        <v>0.08</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="N88" s="25" t="s">
         <v>93</v>
       </c>
       <c r="P88" s="94">
         <f>I88</f>
-        <v>2.5000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="90" spans="4:20">
@@ -30162,15 +30167,15 @@
     <row r="94" spans="4:20" ht="12.75" customHeight="1">
       <c r="E94" s="54">
         <f>H77</f>
-        <v>2337545.4581520357</v>
+        <v>1770177.0939809356</v>
       </c>
       <c r="F94" s="55">
         <f>G94-$I$87</f>
-        <v>4.0000000000000008E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="G94" s="55">
         <f>H94-$I$87</f>
-        <v>4.5000000000000005E-2</v>
+        <v>4.7500000000000001E-2</v>
       </c>
       <c r="H94" s="285">
         <f>$F$87</f>
@@ -30178,15 +30183,15 @@
       </c>
       <c r="I94" s="55">
         <f>H94+$I$87</f>
-        <v>5.5E-2</v>
+        <v>5.2500000000000005E-2</v>
       </c>
       <c r="J94" s="286">
         <f>I94+$I$87</f>
-        <v>0.06</v>
+        <v>5.5000000000000007E-2</v>
       </c>
       <c r="L94" s="54">
         <f>N77</f>
-        <v>2516194.8367950837</v>
+        <v>1901074.4660389645</v>
       </c>
       <c r="M94" s="232">
         <f>N94-$P$87</f>
@@ -30212,83 +30217,83 @@
     <row r="95" spans="4:20" ht="12.75" customHeight="1">
       <c r="E95" s="26">
         <f>E96-$I$88</f>
-        <v>7.4999999999999997E-2</v>
+        <v>6.4999999999999988E-2</v>
       </c>
       <c r="F95" s="221">
-        <f t="dataTable" ref="F95:J99" dt2D="1" dtr="1" r1="F9" r2="F11" ca="1"/>
-        <v>2100179.3304763748</v>
+        <f t="dataTable" ref="F95:J99" dt2D="1" dtr="1" r1="F9" r2="F11"/>
+        <v>2306422.2316743881</v>
       </c>
       <c r="G95" s="222">
-        <v>2409934.7229675404</v>
+        <v>2609473.3695886889</v>
       </c>
       <c r="H95" s="223">
-        <v>2843592.2724551721</v>
+        <v>3013541.553474423</v>
       </c>
       <c r="I95" s="222">
-        <v>3494078.5966866193</v>
+        <v>3579237.0109144505</v>
       </c>
       <c r="J95" s="224">
-        <v>4578222.4704056978</v>
+        <v>4427780.1970744934</v>
       </c>
       <c r="L95" s="26">
         <f>L96-$I$88</f>
-        <v>7.4999999999999997E-2</v>
+        <v>6.4999999999999988E-2</v>
       </c>
       <c r="M95" s="289">
-        <f t="dataTable" ref="M95:Q99" dt2D="1" dtr="1" r1="F10" r2="F11"/>
-        <v>2085123.3897226136</v>
+        <f t="dataTable" ref="M95:Q99" dt2D="1" dtr="1" r1="F10" r2="F11" ca="1"/>
+        <v>1622592.4918826201</v>
       </c>
       <c r="N95" s="290">
-        <v>2339832.8266441524</v>
+        <v>1822262.5657880355</v>
       </c>
       <c r="O95" s="290">
-        <v>2594542.2635656912</v>
+        <v>2021932.6396934511</v>
       </c>
       <c r="P95" s="290">
-        <v>2849251.70048723</v>
+        <v>2221602.7135988665</v>
       </c>
       <c r="Q95" s="291">
-        <v>3103961.1374087683</v>
+        <v>2421272.7875042818</v>
       </c>
     </row>
     <row r="96" spans="4:20" ht="12.75" customHeight="1">
       <c r="E96" s="26">
         <f>E97-$I$88</f>
-        <v>7.7499999999999999E-2</v>
+        <v>6.9999999999999993E-2</v>
       </c>
       <c r="F96" s="225">
-        <v>1946501.0322541185</v>
+        <v>1825165.3754173468</v>
       </c>
       <c r="G96" s="226">
-        <v>2209220.0250526471</v>
+        <v>2007868.4084574322</v>
       </c>
       <c r="H96" s="223">
-        <v>2567473.1970506413</v>
+        <v>2236247.1997575387</v>
       </c>
       <c r="I96" s="226">
-        <v>3084950.0010477435</v>
+        <v>2529877.0742862481</v>
       </c>
       <c r="J96" s="227">
-        <v>3898127.8359003332</v>
+        <v>2921383.5736578605</v>
       </c>
       <c r="L96" s="26">
         <f>L97-$I$88</f>
-        <v>7.7499999999999999E-2</v>
+        <v>6.9999999999999993E-2</v>
       </c>
       <c r="M96" s="233">
-        <v>2053517.5277146404</v>
+        <v>1573496.0103569273</v>
       </c>
       <c r="N96" s="234">
-        <v>2304268.6931341658</v>
+        <v>1766958.7346729957</v>
       </c>
       <c r="O96" s="235">
-        <v>2555019.8585536908</v>
+        <v>1960421.4589890642</v>
       </c>
       <c r="P96" s="234">
-        <v>2805771.0239732158</v>
+        <v>2153884.1833051331</v>
       </c>
       <c r="Q96" s="292">
-        <v>3056522.1893927408</v>
+        <v>2347346.9076212016</v>
       </c>
       <c r="R96" s="56"/>
       <c r="S96" s="56"/>
@@ -30297,41 +30302,41 @@
     <row r="97" spans="4:20" ht="12.75" customHeight="1">
       <c r="E97" s="293">
         <f>$F$88</f>
-        <v>0.08</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="F97" s="225">
-        <v>1812171.5057876215</v>
+        <v>1504603.2624021815</v>
       </c>
       <c r="G97" s="223">
-        <v>2037331.7710866558</v>
+        <v>1625318.6403925244</v>
       </c>
       <c r="H97" s="226">
-        <v>2337545.4581520357</v>
+        <v>1770177.0939809356</v>
       </c>
       <c r="I97" s="223">
-        <v>2757844.620043566</v>
+        <v>1947226.3150334384</v>
       </c>
       <c r="J97" s="227">
-        <v>3388293.3628808628</v>
+        <v>2168537.8413490672</v>
       </c>
       <c r="L97" s="293">
         <f>$M$88</f>
-        <v>0.08</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="M97" s="233">
-        <v>2022468.1024607152</v>
+        <v>1526122.566522989</v>
       </c>
       <c r="N97" s="235">
-        <v>2269331.4696278996</v>
+        <v>1713598.5162809766</v>
       </c>
       <c r="O97" s="234">
-        <v>2516194.8367950837</v>
+        <v>1901074.4660389645</v>
       </c>
       <c r="P97" s="235">
-        <v>2763058.2039622678</v>
+        <v>2088550.4157969523</v>
       </c>
       <c r="Q97" s="292">
-        <v>3009921.571129452</v>
+        <v>2276026.36555494</v>
       </c>
       <c r="R97" s="56"/>
       <c r="S97" s="56"/>
@@ -30340,41 +30345,41 @@
     <row r="98" spans="4:20" ht="12.75" customHeight="1">
       <c r="E98" s="104">
         <f>E97+$I$88</f>
-        <v>8.2500000000000004E-2</v>
+        <v>0.08</v>
       </c>
       <c r="F98" s="225">
-        <v>1693774.3599351698</v>
+        <v>1275861.395798319</v>
       </c>
       <c r="G98" s="226">
-        <v>1888502.6134373497</v>
+        <v>1360716.2622819387</v>
       </c>
       <c r="H98" s="223">
-        <v>2143147.2526325085</v>
+        <v>1459713.6065128283</v>
       </c>
       <c r="I98" s="226">
-        <v>2490389.9424440879</v>
+        <v>1576710.4678766071</v>
       </c>
       <c r="J98" s="227">
-        <v>2991962.7166163698</v>
+        <v>1717106.7015131419</v>
       </c>
       <c r="L98" s="104">
         <f>L97+$I$88</f>
-        <v>8.2500000000000004E-2</v>
+        <v>0.08</v>
       </c>
       <c r="M98" s="233">
-        <v>1991964.0101301407</v>
+        <v>1480403.7553584077</v>
       </c>
       <c r="N98" s="234">
-        <v>2235008.6387877539</v>
+        <v>1662104.6957691049</v>
       </c>
       <c r="O98" s="235">
-        <v>2478053.2674453664</v>
+        <v>1843805.6361798018</v>
       </c>
       <c r="P98" s="234">
-        <v>2721097.8961029793</v>
+        <v>2025506.5765904989</v>
       </c>
       <c r="Q98" s="292">
-        <v>2964142.5247605923</v>
+        <v>2207207.5170011958</v>
       </c>
       <c r="R98" s="56"/>
       <c r="S98" s="56"/>
@@ -30386,38 +30391,38 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="F99" s="228">
-        <v>1588652.4338157112</v>
+        <v>1104502.6608862192</v>
       </c>
       <c r="G99" s="229">
-        <v>1758407.0758113894</v>
+        <v>1166877.7641302473</v>
       </c>
       <c r="H99" s="229">
-        <v>1976663.0440915474</v>
+        <v>1238163.5964091362</v>
       </c>
       <c r="I99" s="229">
-        <v>2267671.0017984239</v>
+        <v>1320416.4798078546</v>
       </c>
       <c r="J99" s="230">
-        <v>2675082.1425880524</v>
+        <v>1416378.1771063593</v>
       </c>
       <c r="L99" s="105">
         <f>L98+$I$88</f>
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="M99" s="236">
-        <v>1961994.3940358679</v>
+        <v>1436274.1943381215</v>
       </c>
       <c r="N99" s="237">
-        <v>2201287.9619414527</v>
+        <v>1612403.4711182995</v>
       </c>
       <c r="O99" s="237">
-        <v>2440581.529847037</v>
+        <v>1788532.7478984776</v>
       </c>
       <c r="P99" s="237">
-        <v>2679875.0977526219</v>
+        <v>1964662.0246786557</v>
       </c>
       <c r="Q99" s="294">
-        <v>2919168.6656582062</v>
+        <v>2140791.3014588337</v>
       </c>
       <c r="R99" s="56"/>
       <c r="S99" s="56"/>
@@ -30466,15 +30471,15 @@
     <row r="103" spans="4:20">
       <c r="E103" s="122">
         <f>H80</f>
-        <v>155.90445899373321</v>
+        <v>118.06476550493102</v>
       </c>
       <c r="F103" s="231">
         <f>G103-$I$87</f>
-        <v>4.0000000000000008E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="G103" s="231">
         <f>H103-$I$87</f>
-        <v>4.5000000000000005E-2</v>
+        <v>4.7500000000000001E-2</v>
       </c>
       <c r="H103" s="295">
         <f>$F$87</f>
@@ -30482,15 +30487,15 @@
       </c>
       <c r="I103" s="231">
         <f>H103+$I$87</f>
-        <v>5.5E-2</v>
+        <v>5.2500000000000005E-2</v>
       </c>
       <c r="J103" s="296">
         <f>I103+$I$87</f>
-        <v>0.06</v>
+        <v>5.5000000000000007E-2</v>
       </c>
       <c r="L103" s="122">
         <f>N80</f>
-        <v>167.81918345972281</v>
+        <v>126.79474896885183</v>
       </c>
       <c r="M103" s="113">
         <f>N103-$P$87</f>
@@ -30516,201 +30521,201 @@
     <row r="104" spans="4:20">
       <c r="E104" s="26">
         <f>E105-$I$88</f>
-        <v>7.4999999999999997E-2</v>
+        <v>6.4999999999999988E-2</v>
       </c>
       <c r="F104" s="299">
         <f>(F95-SUM(Assumptions!$D$19:$D$22))/Assumptions!$D$17</f>
-        <v>140.07371818569928</v>
+        <v>153.82874694373669</v>
       </c>
       <c r="G104" s="299">
         <f>(G95-SUM(Assumptions!$D$19:$D$22))/Assumptions!$D$17</f>
-        <v>160.73234113428975</v>
+        <v>174.04024073554015</v>
       </c>
       <c r="H104" s="299">
         <f>(H95-SUM(Assumptions!$D$19:$D$22))/Assumptions!$D$17</f>
-        <v>189.65441326231641</v>
+        <v>200.98889912461138</v>
       </c>
       <c r="I104" s="299">
         <f>(I95-SUM(Assumptions!$D$19:$D$22))/Assumptions!$D$17</f>
-        <v>233.03752145435635</v>
+        <v>238.71702086931109</v>
       </c>
       <c r="J104" s="299">
         <f>(J95-SUM(Assumptions!$D$19:$D$22))/Assumptions!$D$17</f>
-        <v>305.34270177442295</v>
+        <v>295.30920348636079</v>
       </c>
       <c r="L104" s="26">
         <f>L105-$I$88</f>
-        <v>7.4999999999999997E-2</v>
+        <v>6.4999999999999988E-2</v>
       </c>
       <c r="M104" s="300">
         <f>(M95-SUM(Assumptions!$D$19:$D$22))/Assumptions!$D$17</f>
-        <v>139.06958714970079</v>
+        <v>108.22185486745499</v>
       </c>
       <c r="N104" s="300">
         <f>(N95-SUM(Assumptions!$D$19:$D$22))/Assumptions!$D$17</f>
-        <v>156.05701124744246</v>
+        <v>121.53851979378655</v>
       </c>
       <c r="O104" s="300">
         <f>(O95-SUM(Assumptions!$D$19:$D$22))/Assumptions!$D$17</f>
-        <v>173.04443534518416</v>
+        <v>134.85518472011813</v>
       </c>
       <c r="P104" s="300">
         <f>(P95-SUM(Assumptions!$D$19:$D$22))/Assumptions!$D$17</f>
-        <v>190.03185944292582</v>
+        <v>148.17184964644969</v>
       </c>
       <c r="Q104" s="300">
         <f>(Q95-SUM(Assumptions!$D$19:$D$22))/Assumptions!$D$17</f>
-        <v>207.01928354066749</v>
+        <v>161.48851457278124</v>
       </c>
     </row>
     <row r="105" spans="4:20">
       <c r="E105" s="26">
         <f>E106-$I$88</f>
-        <v>7.7499999999999999E-2</v>
+        <v>6.9999999999999993E-2</v>
       </c>
       <c r="F105" s="299">
         <f>(F96-SUM(Assumptions!$D$19:$D$22))/Assumptions!$D$17</f>
-        <v>129.82439857637178</v>
+        <v>121.73211787497311</v>
       </c>
       <c r="G105" s="299">
         <f>(G96-SUM(Assumptions!$D$19:$D$22))/Assumptions!$D$17</f>
-        <v>147.34600673953895</v>
+        <v>133.91719410813874</v>
       </c>
       <c r="H105" s="299">
         <f>(H96-SUM(Assumptions!$D$19:$D$22))/Assumptions!$D$17</f>
-        <v>171.2391087802215</v>
+        <v>149.14853939959576</v>
       </c>
       <c r="I105" s="299">
         <f>(I96-SUM(Assumptions!$D$19:$D$22))/Assumptions!$D$17</f>
-        <v>205.7513672834296</v>
+        <v>168.73169763146913</v>
       </c>
       <c r="J105" s="299">
         <f>(J96-SUM(Assumptions!$D$19:$D$22))/Assumptions!$D$17</f>
-        <v>259.9849163598995</v>
+        <v>194.84257527396696</v>
       </c>
       <c r="L105" s="26">
         <f>L106-$I$88</f>
-        <v>7.7499999999999999E-2</v>
+        <v>6.9999999999999993E-2</v>
       </c>
       <c r="M105" s="300">
         <f>(M96-SUM(Assumptions!$D$19:$D$22))/Assumptions!$D$17</f>
-        <v>136.9616865222516</v>
+        <v>104.94744633566275</v>
       </c>
       <c r="N105" s="300">
         <f>(N96-SUM(Assumptions!$D$19:$D$22))/Assumptions!$D$17</f>
-        <v>153.6851202570472</v>
+        <v>117.85012236047724</v>
       </c>
       <c r="O105" s="300">
         <f>(O96-SUM(Assumptions!$D$19:$D$22))/Assumptions!$D$17</f>
-        <v>170.40855399184278</v>
+        <v>130.75279838529173</v>
       </c>
       <c r="P105" s="300">
         <f>(P96-SUM(Assumptions!$D$19:$D$22))/Assumptions!$D$17</f>
-        <v>187.13198772663839</v>
+        <v>143.65547441010625</v>
       </c>
       <c r="Q105" s="300">
         <f>(Q96-SUM(Assumptions!$D$19:$D$22))/Assumptions!$D$17</f>
-        <v>203.85542146143396</v>
+        <v>156.55815043492075</v>
       </c>
     </row>
     <row r="106" spans="4:20">
       <c r="E106" s="293">
         <f>$F$88</f>
-        <v>0.08</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="F106" s="299">
         <f>(F97-SUM(Assumptions!$D$19:$D$22))/Assumptions!$D$17</f>
-        <v>120.86551325781123</v>
+        <v>100.35275859691754</v>
       </c>
       <c r="G106" s="299">
         <f>(G97-SUM(Assumptions!$D$19:$D$22))/Assumptions!$D$17</f>
-        <v>135.88220428749204</v>
+        <v>108.40367082783276</v>
       </c>
       <c r="H106" s="299">
         <f>(H97-SUM(Assumptions!$D$19:$D$22))/Assumptions!$D$17</f>
-        <v>155.90445899373321</v>
+        <v>118.06476550493102</v>
       </c>
       <c r="I106" s="299">
         <f>(I97-SUM(Assumptions!$D$19:$D$22))/Assumptions!$D$17</f>
-        <v>183.93561558247072</v>
+        <v>129.87277011027334</v>
       </c>
       <c r="J106" s="299">
         <f>(J97-SUM(Assumptions!$D$19:$D$22))/Assumptions!$D$17</f>
-        <v>225.98235046557707</v>
+        <v>144.63277586695125</v>
       </c>
       <c r="L106" s="293">
         <f>$M$88</f>
-        <v>0.08</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="M106" s="300">
         <f>(M97-SUM(Assumptions!$D$19:$D$22))/Assumptions!$D$17</f>
-        <v>134.89089652265673</v>
+        <v>101.78795294937902</v>
       </c>
       <c r="N106" s="300">
         <f>(N97-SUM(Assumptions!$D$19:$D$22))/Assumptions!$D$17</f>
-        <v>151.35503999118978</v>
+        <v>114.29135095911542</v>
       </c>
       <c r="O106" s="300">
         <f>(O97-SUM(Assumptions!$D$19:$D$22))/Assumptions!$D$17</f>
-        <v>167.81918345972281</v>
+        <v>126.79474896885183</v>
       </c>
       <c r="P106" s="300">
         <f>(P97-SUM(Assumptions!$D$19:$D$22))/Assumptions!$D$17</f>
-        <v>184.28332692825583</v>
+        <v>139.29814697858825</v>
       </c>
       <c r="Q106" s="300">
         <f>(Q97-SUM(Assumptions!$D$19:$D$22))/Assumptions!$D$17</f>
-        <v>200.74747039678886</v>
+        <v>151.80154498832465</v>
       </c>
     </row>
     <row r="107" spans="4:20">
       <c r="E107" s="104">
         <f>E106+$I$88</f>
-        <v>8.2500000000000004E-2</v>
+        <v>0.08</v>
       </c>
       <c r="F107" s="299">
         <f>(F98-SUM(Assumptions!$D$19:$D$22))/Assumptions!$D$17</f>
-        <v>112.96921168035013</v>
+        <v>85.097198599327669</v>
       </c>
       <c r="G107" s="299">
         <f>(G98-SUM(Assumptions!$D$19:$D$22))/Assumptions!$D$17</f>
-        <v>125.95629007852139</v>
+        <v>90.756453400155976</v>
       </c>
       <c r="H107" s="299">
         <f>(H98-SUM(Assumptions!$D$19:$D$22))/Assumptions!$D$17</f>
-        <v>142.93939259920691</v>
+        <v>97.358917334455668</v>
       </c>
       <c r="I107" s="299">
         <f>(I98-SUM(Assumptions!$D$19:$D$22))/Assumptions!$D$17</f>
-        <v>166.09816876377803</v>
+        <v>105.16182925680987</v>
       </c>
       <c r="J107" s="299">
         <f>(J98-SUM(Assumptions!$D$19:$D$22))/Assumptions!$D$17</f>
-        <v>199.54973433482525</v>
+        <v>114.52532356363491</v>
       </c>
       <c r="L107" s="104">
         <f>L106+$I$88</f>
-        <v>8.2500000000000004E-2</v>
+        <v>0.08</v>
       </c>
       <c r="M107" s="300">
         <f>(M98-SUM(Assumptions!$D$19:$D$22))/Assumptions!$D$17</f>
-        <v>132.85647659931578</v>
+        <v>98.738812548913415</v>
       </c>
       <c r="N107" s="300">
         <f>(N98-SUM(Assumptions!$D$19:$D$22))/Assumptions!$D$17</f>
-        <v>149.06593562676764</v>
+        <v>110.85705587362311</v>
       </c>
       <c r="O107" s="300">
         <f>(O98-SUM(Assumptions!$D$19:$D$22))/Assumptions!$D$17</f>
-        <v>165.27539465421944</v>
+        <v>122.97529919833279</v>
       </c>
       <c r="P107" s="300">
         <f>(P98-SUM(Assumptions!$D$19:$D$22))/Assumptions!$D$17</f>
-        <v>181.4848536816713</v>
+        <v>135.09354252304249</v>
       </c>
       <c r="Q107" s="300">
         <f>(Q98-SUM(Assumptions!$D$19:$D$22))/Assumptions!$D$17</f>
-        <v>197.69431270912312</v>
+        <v>147.21178584775217</v>
       </c>
     </row>
     <row r="108" spans="4:20">
@@ -30720,23 +30725,23 @@
       </c>
       <c r="F108" s="299">
         <f>(F99-SUM(Assumptions!$D$19:$D$22))/Assumptions!$D$17</f>
-        <v>105.95827889927379</v>
+        <v>73.668711543698763</v>
       </c>
       <c r="G108" s="299">
         <f>(G99-SUM(Assumptions!$D$19:$D$22))/Assumptions!$D$17</f>
-        <v>117.27978363421298</v>
+        <v>77.828715761654479</v>
       </c>
       <c r="H108" s="299">
         <f>(H99-SUM(Assumptions!$D$19:$D$22))/Assumptions!$D$17</f>
-        <v>131.83600400770624</v>
+        <v>82.583006296460994</v>
       </c>
       <c r="I108" s="299">
         <f>(I99-SUM(Assumptions!$D$19:$D$22))/Assumptions!$D$17</f>
-        <v>151.24429783903054</v>
+        <v>88.068726144314695</v>
       </c>
       <c r="J108" s="299">
         <f>(J99-SUM(Assumptions!$D$19:$D$22))/Assumptions!$D$17</f>
-        <v>178.41590920288465</v>
+        <v>94.468732633477345</v>
       </c>
       <c r="L108" s="105">
         <f>L107+$I$88</f>
@@ -30744,23 +30749,23 @@
       </c>
       <c r="M108" s="300">
         <f>(M99-SUM(Assumptions!$D$19:$D$22))/Assumptions!$D$17</f>
-        <v>130.85770268346457</v>
+        <v>95.795664555030115</v>
       </c>
       <c r="N108" s="300">
         <f>(N99-SUM(Assumptions!$D$19:$D$22))/Assumptions!$D$17</f>
-        <v>146.8169909258005</v>
+        <v>107.54231500055353</v>
       </c>
       <c r="O108" s="300">
         <f>(O99-SUM(Assumptions!$D$19:$D$22))/Assumptions!$D$17</f>
-        <v>162.7762791681364</v>
+        <v>119.28896544607694</v>
       </c>
       <c r="P108" s="300">
         <f>(P99-SUM(Assumptions!$D$19:$D$22))/Assumptions!$D$17</f>
-        <v>178.7355674104723</v>
+        <v>131.03561589160034</v>
       </c>
       <c r="Q108" s="300">
         <f>(Q99-SUM(Assumptions!$D$19:$D$22))/Assumptions!$D$17</f>
-        <v>194.6948556528082</v>
+        <v>142.78226633712376</v>
       </c>
     </row>
     <row r="110" spans="4:20">
@@ -30887,27 +30892,27 @@
       </c>
       <c r="N112" s="95">
         <f t="shared" si="54"/>
-        <v>144586.95000000001</v>
+        <v>135961.83000000002</v>
       </c>
       <c r="O112" s="95">
         <f t="shared" si="54"/>
-        <v>155301.89442000003</v>
+        <v>137897.63441999999</v>
       </c>
       <c r="P112" s="95">
         <f t="shared" si="54"/>
-        <v>166868.92232412001</v>
+        <v>140493.42858012</v>
       </c>
       <c r="Q112" s="95">
         <f t="shared" si="54"/>
-        <v>179356.16971867275</v>
+        <v>143784.37157251273</v>
       </c>
       <c r="R112" s="95">
         <f t="shared" si="54"/>
-        <v>192837.22330644145</v>
+        <v>147816.5708311286</v>
       </c>
       <c r="S112" s="95">
         <f t="shared" si="54"/>
-        <v>207391.55654129328</v>
+        <v>152648.16845534995</v>
       </c>
       <c r="T112" s="95"/>
     </row>
@@ -30950,27 +30955,27 @@
       </c>
       <c r="N113" s="97">
         <f t="shared" si="55"/>
-        <v>0.35898494920314167</v>
+        <v>0.33757023463124564</v>
       </c>
       <c r="O113" s="97">
         <f t="shared" si="55"/>
-        <v>0.37526846175142392</v>
+        <v>0.3332131481152707</v>
       </c>
       <c r="P113" s="97">
         <f t="shared" si="55"/>
-        <v>0.39338419693702348</v>
+        <v>0.33120543841931965</v>
       </c>
       <c r="Q113" s="97">
         <f t="shared" si="55"/>
-        <v>0.41351803194676817</v>
+        <v>0.33150479546162048</v>
       </c>
       <c r="R113" s="97">
         <f t="shared" si="55"/>
-        <v>0.43588189384173992</v>
+        <v>0.33411893062096282</v>
       </c>
       <c r="S113" s="97">
         <f t="shared" ref="S113" si="56">S112/S$24</f>
-        <v>0.46071739829014036</v>
+        <v>0.3391057389093905</v>
       </c>
       <c r="T113" s="97"/>
     </row>
@@ -31139,27 +31144,27 @@
       </c>
       <c r="N116" s="95">
         <f t="shared" si="59"/>
-        <v>133073.28</v>
+        <v>124448.16000000002</v>
       </c>
       <c r="O116" s="95">
         <f t="shared" si="59"/>
-        <v>143719.14240000001</v>
+        <v>126314.88239999999</v>
       </c>
       <c r="P116" s="95">
         <f t="shared" si="59"/>
-        <v>155216.67379200002</v>
+        <v>128841.18004800001</v>
       </c>
       <c r="Q116" s="95">
         <f t="shared" si="59"/>
-        <v>167634.00769536002</v>
+        <v>132062.20954919999</v>
       </c>
       <c r="R116" s="95">
         <f t="shared" si="59"/>
-        <v>181044.72831098884</v>
+        <v>136024.07583567599</v>
       </c>
       <c r="S116" s="95">
         <f t="shared" si="59"/>
-        <v>195528.30657586796</v>
+        <v>140784.91848992463</v>
       </c>
       <c r="T116" s="95"/>
     </row>
@@ -31202,27 +31207,27 @@
       </c>
       <c r="N117" s="97">
         <f t="shared" si="60"/>
-        <v>0.33039845339496715</v>
+        <v>0.30898373882307117</v>
       </c>
       <c r="O117" s="97">
         <f t="shared" si="60"/>
-        <v>0.34728012619616982</v>
+        <v>0.30522481256001666</v>
       </c>
       <c r="P117" s="97">
         <f t="shared" si="60"/>
-        <v>0.36591466955303753</v>
+        <v>0.30373591103533376</v>
       </c>
       <c r="Q117" s="97">
         <f t="shared" si="60"/>
-        <v>0.38649177810980984</v>
+        <v>0.30447854162466215</v>
       </c>
       <c r="R117" s="97">
         <f t="shared" si="60"/>
-        <v>0.40922658858685751</v>
+        <v>0.30746362536608041</v>
       </c>
       <c r="S117" s="97">
         <f t="shared" ref="S117" si="61">S116/S$24</f>
-        <v>0.43436335692757355</v>
+        <v>0.31275169754682375</v>
       </c>
       <c r="T117" s="97"/>
     </row>
@@ -31265,27 +31270,27 @@
       </c>
       <c r="N118" s="96">
         <f t="shared" si="62"/>
-        <v>-33268.32</v>
+        <v>-31112.040000000005</v>
       </c>
       <c r="O118" s="96">
         <f t="shared" si="62"/>
-        <v>-35929.785600000003</v>
+        <v>-31578.720599999997</v>
       </c>
       <c r="P118" s="96">
         <f t="shared" si="62"/>
-        <v>-38804.168448000004</v>
+        <v>-32210.295012000002</v>
       </c>
       <c r="Q118" s="96">
         <f t="shared" si="62"/>
-        <v>-41908.501923840005</v>
+        <v>-33015.552387299998</v>
       </c>
       <c r="R118" s="96">
         <f t="shared" si="62"/>
-        <v>-45261.182077747209</v>
+        <v>-34006.018958918998</v>
       </c>
       <c r="S118" s="96">
         <f t="shared" si="62"/>
-        <v>-48882.07664396699</v>
+        <v>-35196.229622481158</v>
       </c>
       <c r="T118" s="96"/>
     </row>
@@ -31391,27 +31396,27 @@
       </c>
       <c r="N120" s="96">
         <f t="shared" si="64"/>
-        <v>99804.959999999992</v>
+        <v>93336.12000000001</v>
       </c>
       <c r="O120" s="96">
         <f t="shared" si="64"/>
-        <v>107789.35680000001</v>
+        <v>94736.161799999987</v>
       </c>
       <c r="P120" s="96">
         <f t="shared" si="64"/>
-        <v>116412.505344</v>
+        <v>96630.885036000007</v>
       </c>
       <c r="Q120" s="96">
         <f t="shared" si="64"/>
-        <v>125725.50577152002</v>
+        <v>99046.657161899988</v>
       </c>
       <c r="R120" s="96">
         <f t="shared" si="64"/>
-        <v>135783.54623324162</v>
+        <v>102018.05687675699</v>
       </c>
       <c r="S120" s="96">
         <f t="shared" si="64"/>
-        <v>146646.22993190098</v>
+        <v>105588.68886744347</v>
       </c>
       <c r="T120" s="96"/>
     </row>
@@ -31788,27 +31793,27 @@
       </c>
       <c r="N127" s="101">
         <f t="shared" si="70"/>
-        <v>-2090.1300000000047</v>
+        <v>-8558.9699999999866</v>
       </c>
       <c r="O127" s="101">
         <f t="shared" si="70"/>
-        <v>4430.0811800000083</v>
+        <v>-8623.1138200000132</v>
       </c>
       <c r="P127" s="101">
         <f t="shared" si="70"/>
-        <v>11572.751387880038</v>
+        <v>-8208.8689201199886</v>
       </c>
       <c r="Q127" s="101">
         <f t="shared" si="70"/>
-        <v>19388.780950207292</v>
+        <v>-7290.067659412729</v>
       </c>
       <c r="R127" s="101">
         <f t="shared" si="70"/>
-        <v>27933.155445653843</v>
+        <v>-5832.3339108307991</v>
       </c>
       <c r="S127" s="101">
         <f t="shared" si="70"/>
-        <v>37265.272702940798</v>
+        <v>-3792.2683615166898</v>
       </c>
       <c r="T127" s="101"/>
     </row>
@@ -32607,27 +32612,27 @@
       </c>
       <c r="N11" s="182">
         <f>'DCF input'!N27</f>
-        <v>144586.95000000001</v>
+        <v>135961.83000000002</v>
       </c>
       <c r="O11" s="182">
         <f>'DCF input'!O27</f>
-        <v>155301.89442000003</v>
+        <v>137897.63441999999</v>
       </c>
       <c r="P11" s="182">
         <f>'DCF input'!P27</f>
-        <v>166868.92232412001</v>
+        <v>140493.42858012</v>
       </c>
       <c r="Q11" s="182">
         <f>'DCF input'!Q27</f>
-        <v>179356.16971867275</v>
+        <v>143784.37157251273</v>
       </c>
       <c r="R11" s="182">
         <f>'DCF input'!R27</f>
-        <v>192837.22330644145</v>
+        <v>147816.5708311286</v>
       </c>
       <c r="S11" s="182">
         <f>'DCF input'!S27</f>
-        <v>207391.55654129328</v>
+        <v>152648.16845534995</v>
       </c>
       <c r="T11" s="183"/>
       <c r="U11" s="37"/>
@@ -32665,27 +32670,27 @@
       </c>
       <c r="N12" s="184">
         <f t="shared" si="11"/>
-        <v>0.35898494920314167</v>
+        <v>0.33757023463124564</v>
       </c>
       <c r="O12" s="184">
         <f t="shared" si="11"/>
-        <v>0.37526846175142392</v>
+        <v>0.3332131481152707</v>
       </c>
       <c r="P12" s="184">
         <f t="shared" si="11"/>
-        <v>0.39338419693702348</v>
+        <v>0.33120543841931965</v>
       </c>
       <c r="Q12" s="184">
         <f t="shared" si="11"/>
-        <v>0.41351803194676817</v>
+        <v>0.33150479546162048</v>
       </c>
       <c r="R12" s="184">
         <f t="shared" si="11"/>
-        <v>0.43588189384173992</v>
+        <v>0.33411893062096282</v>
       </c>
       <c r="S12" s="184">
         <f t="shared" si="11"/>
-        <v>0.46071739829014036</v>
+        <v>0.3391057389093905</v>
       </c>
       <c r="T12" s="185"/>
       <c r="U12" s="37"/>
@@ -32720,27 +32725,27 @@
       </c>
       <c r="N13" s="184">
         <f t="shared" si="12"/>
-        <v>7.3710651190767917E-2</v>
+        <v>9.6600351995010936E-3</v>
       </c>
       <c r="O13" s="184">
         <f t="shared" si="12"/>
-        <v>7.4107271921843632E-2</v>
+        <v>1.4237852050093647E-2</v>
       </c>
       <c r="P13" s="184">
         <f t="shared" si="12"/>
-        <v>7.4480919549107405E-2</v>
+        <v>1.8824065916996924E-2</v>
       </c>
       <c r="Q13" s="184">
         <f t="shared" si="12"/>
-        <v>7.4832672379210097E-2</v>
+        <v>2.3424177384324896E-2</v>
       </c>
       <c r="R13" s="184">
         <f t="shared" si="12"/>
-        <v>7.5163589905573147E-2</v>
+        <v>2.8043376442914436E-2</v>
       </c>
       <c r="S13" s="184">
         <f t="shared" si="12"/>
-        <v>7.547470859255867E-2</v>
+        <v>3.2686441019804002E-2</v>
       </c>
       <c r="T13" s="185"/>
       <c r="U13" s="37"/>
@@ -32949,27 +32954,27 @@
       </c>
       <c r="N17" s="186">
         <f t="shared" si="15"/>
-        <v>156100.62000000002</v>
+        <v>147475.50000000003</v>
       </c>
       <c r="O17" s="186">
         <f t="shared" si="15"/>
-        <v>166884.64644000004</v>
+        <v>149480.38643999997</v>
       </c>
       <c r="P17" s="186">
         <f t="shared" si="15"/>
-        <v>178521.17085624</v>
+        <v>152145.67711224</v>
       </c>
       <c r="Q17" s="186">
         <f t="shared" si="15"/>
-        <v>191078.33174198549</v>
+        <v>155506.53359582546</v>
       </c>
       <c r="R17" s="186">
         <f t="shared" si="15"/>
-        <v>204629.71830189406</v>
+        <v>159609.06582658121</v>
       </c>
       <c r="S17" s="186">
         <f t="shared" si="15"/>
-        <v>219254.8065067186</v>
+        <v>164511.41842077527</v>
       </c>
       <c r="T17" s="187"/>
       <c r="U17" s="37"/>
@@ -33007,27 +33012,27 @@
       </c>
       <c r="N18" s="184">
         <f t="shared" si="16"/>
-        <v>0.38757144501131618</v>
+        <v>0.36615673043942021</v>
       </c>
       <c r="O18" s="184">
         <f t="shared" si="16"/>
-        <v>0.40325679730667802</v>
+        <v>0.36120148367052474</v>
       </c>
       <c r="P18" s="184">
         <f t="shared" si="16"/>
-        <v>0.42085372432100937</v>
+        <v>0.3586749658033056</v>
       </c>
       <c r="Q18" s="184">
         <f t="shared" si="16"/>
-        <v>0.44054428578372645</v>
+        <v>0.35853104929857882</v>
       </c>
       <c r="R18" s="184">
         <f t="shared" si="16"/>
-        <v>0.46253719909662233</v>
+        <v>0.36077423587584523</v>
       </c>
       <c r="S18" s="184">
         <f t="shared" si="16"/>
-        <v>0.48707143965270711</v>
+        <v>0.3654597802719573</v>
       </c>
       <c r="T18" s="185"/>
       <c r="U18" s="37"/>
@@ -33062,27 +33067,27 @@
       </c>
       <c r="N19" s="186">
         <f t="shared" si="17"/>
-        <v>-39025.155000000006</v>
+        <v>-36868.875000000007</v>
       </c>
       <c r="O19" s="186">
         <f t="shared" si="17"/>
-        <v>-41721.16161000001</v>
+        <v>-37370.096609999993</v>
       </c>
       <c r="P19" s="186">
         <f t="shared" si="17"/>
-        <v>-44630.29271406</v>
+        <v>-38036.419278059999</v>
       </c>
       <c r="Q19" s="186">
         <f t="shared" si="17"/>
-        <v>-47769.582935496372</v>
+        <v>-38876.633398956365</v>
       </c>
       <c r="R19" s="186">
         <f t="shared" si="17"/>
-        <v>-51157.429575473514</v>
+        <v>-39902.266456645302</v>
       </c>
       <c r="S19" s="186">
         <f t="shared" si="17"/>
-        <v>-54813.701626679649</v>
+        <v>-41127.854605193817</v>
       </c>
       <c r="T19" s="187"/>
       <c r="U19" s="37"/>
@@ -33557,31 +33562,31 @@
       </c>
       <c r="N28" s="182">
         <f t="shared" si="22"/>
-        <v>15180.375000000044</v>
+        <v>8711.5350000000326</v>
       </c>
       <c r="O28" s="182">
         <f t="shared" si="22"/>
-        <v>21804.209210000045</v>
+        <v>8751.0142099999794</v>
       </c>
       <c r="P28" s="182">
         <f t="shared" si="22"/>
-        <v>29051.124186060013</v>
+        <v>9269.5038780600007</v>
       </c>
       <c r="Q28" s="182">
         <f t="shared" si="22"/>
-        <v>36972.023985176376</v>
+        <v>10293.17537555637</v>
       </c>
       <c r="R28" s="182">
         <f t="shared" si="22"/>
-        <v>45621.897938832743</v>
+        <v>11856.4085823481</v>
       </c>
       <c r="S28" s="182">
         <f t="shared" si="22"/>
-        <v>55060.147651078762</v>
+        <v>14002.606586621318</v>
       </c>
       <c r="T28" s="182">
         <f>S28*(1+'DCF input'!F9)/('DCF input'!F11-'DCF input'!F9)</f>
-        <v>1927105.167787757</v>
+        <v>588109.47663809545</v>
       </c>
       <c r="U28" s="37"/>
     </row>
@@ -33654,43 +33659,43 @@
       <c r="I30" s="189"/>
       <c r="J30" s="190">
         <f>'DCF input'!J67</f>
-        <v>1.1016043076244333</v>
+        <v>1.0951955814566061</v>
       </c>
       <c r="K30" s="190">
         <f>'DCF input'!K67</f>
-        <v>1.0200039885411418</v>
+        <v>1.0187865874014941</v>
       </c>
       <c r="L30" s="190">
         <f>'DCF input'!L67</f>
-        <v>0.9444481375380942</v>
+        <v>0.9477084533967387</v>
       </c>
       <c r="M30" s="190">
         <f>'DCF input'!M67</f>
-        <v>0.87448901623897612</v>
+        <v>0.88158925897371054</v>
       </c>
       <c r="N30" s="190">
         <f>'DCF input'!N67</f>
-        <v>0.80971205207312591</v>
+        <v>0.82008303160345153</v>
       </c>
       <c r="O30" s="190">
         <f>'DCF input'!O67</f>
-        <v>0.74973338154919067</v>
+        <v>0.76286793637530381</v>
       </c>
       <c r="P30" s="190">
         <f>'DCF input'!P67</f>
-        <v>0.6941975755085098</v>
+        <v>0.7096445919770269</v>
       </c>
       <c r="Q30" s="190">
         <f>'DCF input'!Q67</f>
-        <v>0.64277553287824973</v>
+        <v>0.66013450416467623</v>
       </c>
       <c r="R30" s="190">
         <f>'DCF input'!R67</f>
-        <v>0.59516253044282386</v>
+        <v>0.61407860852528029</v>
       </c>
       <c r="S30" s="190">
         <f>'DCF input'!S67</f>
-        <v>0.55107641707668875</v>
+        <v>0.57123591490723746</v>
       </c>
       <c r="T30" s="186"/>
       <c r="U30" s="37"/>
@@ -33709,47 +33714,47 @@
       <c r="I31" s="191"/>
       <c r="J31" s="191">
         <f t="shared" ref="J31" si="24">J30*J28</f>
-        <v>13531.831913781632</v>
+        <v>13453.108723717585</v>
       </c>
       <c r="K31" s="191">
         <f t="shared" ref="K31:S31" si="25">K30*K28</f>
-        <v>-19099.829686430017</v>
+        <v>-19077.033545739829</v>
       </c>
       <c r="L31" s="191">
         <f t="shared" si="25"/>
-        <v>-25276.973841035167</v>
+        <v>-25364.232119596967</v>
       </c>
       <c r="M31" s="191">
         <f t="shared" si="25"/>
-        <v>7986.2709408024493</v>
+        <v>8051.1139075774117</v>
       </c>
       <c r="N31" s="191">
         <f t="shared" si="25"/>
-        <v>12291.732592489614</v>
+        <v>7144.182032719601</v>
       </c>
       <c r="O31" s="191">
         <f t="shared" si="25"/>
-        <v>16347.343503019341</v>
+        <v>6675.8681515736434</v>
       </c>
       <c r="P31" s="191">
         <f t="shared" si="25"/>
-        <v>20167.21997575949</v>
+        <v>6578.0532973753579</v>
       </c>
       <c r="Q31" s="191">
         <f t="shared" si="25"/>
-        <v>23764.712418659175</v>
+        <v>6794.8802228229588</v>
       </c>
       <c r="R31" s="191">
         <f t="shared" si="25"/>
-        <v>27152.444220879945</v>
+        <v>7280.766884355512</v>
       </c>
       <c r="S31" s="191">
         <f t="shared" si="25"/>
-        <v>30342.348891269943</v>
+        <v>7998.7917845947377</v>
       </c>
       <c r="T31" s="191">
         <f>T28*S30</f>
-        <v>1061982.2111944482</v>
+        <v>335949.25495297904</v>
       </c>
       <c r="U31" s="37"/>
     </row>
@@ -33827,12 +33832,12 @@
     <row r="35" spans="1:22" ht="20.25" customHeight="1">
       <c r="A35" s="133"/>
       <c r="B35" s="128"/>
-      <c r="C35" s="311" t="str">
+      <c r="C35" s="313" t="str">
         <f>"Value Based on "&amp;TEXT(K40,"#0.0%")&amp;" WACC &amp; "&amp;TEXT(N37,"#0.0%")&amp;" TGR"</f>
-        <v>Value Based on 8.0% WACC &amp; 5.0% TGR</v>
-      </c>
-      <c r="D35" s="311"/>
-      <c r="E35" s="311"/>
+        <v>Value Based on 7.5% WACC &amp; 5.0% TGR</v>
+      </c>
+      <c r="D35" s="313"/>
+      <c r="E35" s="313"/>
       <c r="F35" s="151" t="s">
         <v>118</v>
       </c>
@@ -33859,9 +33864,9 @@
     <row r="36" spans="1:22" ht="20.25" customHeight="1">
       <c r="A36" s="133"/>
       <c r="B36" s="128"/>
-      <c r="C36" s="312"/>
-      <c r="D36" s="312"/>
-      <c r="E36" s="312"/>
+      <c r="C36" s="314"/>
+      <c r="D36" s="314"/>
+      <c r="E36" s="314"/>
       <c r="F36" s="238" t="s">
         <v>78</v>
       </c>
@@ -33872,13 +33877,13 @@
       <c r="I36" s="37"/>
       <c r="J36" s="136"/>
       <c r="K36" s="151"/>
-      <c r="L36" s="315" t="s">
+      <c r="L36" s="317" t="s">
         <v>122</v>
       </c>
-      <c r="M36" s="315"/>
-      <c r="N36" s="315"/>
-      <c r="O36" s="315"/>
-      <c r="P36" s="315"/>
+      <c r="M36" s="317"/>
+      <c r="N36" s="317"/>
+      <c r="O36" s="317"/>
+      <c r="P36" s="317"/>
       <c r="Q36" s="153"/>
       <c r="R36" s="153"/>
       <c r="S36" s="153"/>
@@ -33895,25 +33900,25 @@
       <c r="E37" s="154"/>
       <c r="F37" s="192">
         <f>SUM(J31:S31)</f>
-        <v>107207.1009291964</v>
+        <v>19535.499339400012</v>
       </c>
       <c r="G37" s="193">
         <f>F37/F$39</f>
-        <v>9.1693534842934812E-2</v>
+        <v>5.4954534909062387E-2</v>
       </c>
       <c r="H37" s="128"/>
       <c r="I37" s="37"/>
-      <c r="J37" s="313" t="s">
+      <c r="J37" s="315" t="s">
         <v>97</v>
       </c>
       <c r="K37" s="203"/>
       <c r="L37" s="204">
         <f>'DCF input'!F103</f>
-        <v>4.0000000000000008E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="M37" s="204">
         <f>'DCF input'!G103</f>
-        <v>4.5000000000000005E-2</v>
+        <v>4.7500000000000001E-2</v>
       </c>
       <c r="N37" s="204">
         <f>'DCF input'!H103</f>
@@ -33921,11 +33926,11 @@
       </c>
       <c r="O37" s="204">
         <f>'DCF input'!I103</f>
-        <v>5.5E-2</v>
+        <v>5.2500000000000005E-2</v>
       </c>
       <c r="P37" s="204">
         <f>'DCF input'!J103</f>
-        <v>0.06</v>
+        <v>5.5000000000000007E-2</v>
       </c>
       <c r="Q37" s="155"/>
       <c r="R37" s="155"/>
@@ -33943,38 +33948,38 @@
       <c r="E38" s="154"/>
       <c r="F38" s="192">
         <f>T31</f>
-        <v>1061982.2111944482</v>
+        <v>335949.25495297904</v>
       </c>
       <c r="G38" s="193">
         <f>F38/F$39</f>
-        <v>0.90830646515706515</v>
+        <v>0.94504546509093756</v>
       </c>
       <c r="H38" s="128"/>
       <c r="I38" s="37"/>
-      <c r="J38" s="313"/>
+      <c r="J38" s="315"/>
       <c r="K38" s="205">
         <f>'DCF input'!E95</f>
-        <v>7.4999999999999997E-2</v>
+        <v>6.4999999999999988E-2</v>
       </c>
       <c r="L38" s="206" t="str">
         <f>CONCATENATE(ROUND('DCF input'!F95,)," / ",ROUND('DCF input'!F104,0),"c")</f>
-        <v>2100179 / 140c</v>
+        <v>2306422 / 154c</v>
       </c>
       <c r="M38" s="207" t="str">
         <f>CONCATENATE(ROUND('DCF input'!G95,)," / ",ROUND('DCF input'!G104,0),"c")</f>
-        <v>2409935 / 161c</v>
+        <v>2609473 / 174c</v>
       </c>
       <c r="N38" s="207" t="str">
         <f>CONCATENATE(ROUND('DCF input'!H95,)," / ",ROUND('DCF input'!H104,0),"c")</f>
-        <v>2843592 / 190c</v>
+        <v>3013542 / 201c</v>
       </c>
       <c r="O38" s="207" t="str">
         <f>CONCATENATE(ROUND('DCF input'!I95,)," / ",ROUND('DCF input'!I104,0),"c")</f>
-        <v>3494079 / 233c</v>
+        <v>3579237 / 239c</v>
       </c>
       <c r="P38" s="207" t="str">
         <f>CONCATENATE(ROUND('DCF input'!J95,)," / ",ROUND('DCF input'!J104,0),"c")</f>
-        <v>4578222 / 305c</v>
+        <v>4427780 / 295c</v>
       </c>
       <c r="Q38" s="156"/>
       <c r="R38" s="156"/>
@@ -33992,7 +33997,7 @@
       <c r="E39" s="157"/>
       <c r="F39" s="194">
         <f>(F38+F37)</f>
-        <v>1169189.3121236446</v>
+        <v>355484.75429237908</v>
       </c>
       <c r="G39" s="195">
         <f>F39/F$39</f>
@@ -34000,30 +34005,30 @@
       </c>
       <c r="H39" s="128"/>
       <c r="I39" s="37"/>
-      <c r="J39" s="313"/>
+      <c r="J39" s="315"/>
       <c r="K39" s="205">
         <f>'DCF input'!E96</f>
-        <v>7.7499999999999999E-2</v>
+        <v>6.9999999999999993E-2</v>
       </c>
       <c r="L39" s="207" t="str">
         <f>CONCATENATE(ROUND('DCF input'!F96,)," / ",ROUND('DCF input'!F105,0),"c")</f>
-        <v>1946501 / 130c</v>
+        <v>1825165 / 122c</v>
       </c>
       <c r="M39" s="208" t="str">
         <f>CONCATENATE(ROUND('DCF input'!G96,)," / ",ROUND('DCF input'!G105,0),"c")</f>
-        <v>2209220 / 147c</v>
+        <v>2007868 / 134c</v>
       </c>
       <c r="N39" s="208" t="str">
         <f>CONCATENATE(ROUND('DCF input'!H96,)," / ",ROUND('DCF input'!H105,0),"c")</f>
-        <v>2567473 / 171c</v>
+        <v>2236247 / 149c</v>
       </c>
       <c r="O39" s="208" t="str">
         <f>CONCATENATE(ROUND('DCF input'!I96,)," / ",ROUND('DCF input'!I105,0),"c")</f>
-        <v>3084950 / 206c</v>
+        <v>2529877 / 169c</v>
       </c>
       <c r="P39" s="207" t="str">
         <f>CONCATENATE(ROUND('DCF input'!J96,)," / ",ROUND('DCF input'!J105,0),"c")</f>
-        <v>3898128 / 260c</v>
+        <v>2921384 / 195c</v>
       </c>
       <c r="Q39" s="156"/>
       <c r="R39" s="156"/>
@@ -34046,30 +34051,30 @@
       <c r="G40" s="197"/>
       <c r="H40" s="124"/>
       <c r="I40" s="37"/>
-      <c r="J40" s="313"/>
+      <c r="J40" s="315"/>
       <c r="K40" s="205">
         <f>'DCF input'!E97</f>
-        <v>0.08</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="L40" s="207" t="str">
         <f>CONCATENATE(ROUND('DCF input'!F97,)," / ",ROUND('DCF input'!F106,0),"c")</f>
-        <v>1812172 / 121c</v>
+        <v>1504603 / 100c</v>
       </c>
       <c r="M40" s="208" t="str">
         <f>CONCATENATE(ROUND('DCF input'!G97,)," / ",ROUND('DCF input'!G106,0),"c")</f>
-        <v>2037332 / 136c</v>
+        <v>1625319 / 108c</v>
       </c>
       <c r="N40" s="209" t="str">
         <f>CONCATENATE(ROUND('DCF input'!H97,)," / ",ROUND('DCF input'!H106,0),"c")</f>
-        <v>2337545 / 156c</v>
+        <v>1770177 / 118c</v>
       </c>
       <c r="O40" s="208" t="str">
         <f>CONCATENATE(ROUND('DCF input'!I97,)," / ",ROUND('DCF input'!I106,0),"c")</f>
-        <v>2757845 / 184c</v>
+        <v>1947226 / 130c</v>
       </c>
       <c r="P40" s="207" t="str">
         <f>CONCATENATE(ROUND('DCF input'!J97,)," / ",ROUND('DCF input'!J106,0),"c")</f>
-        <v>3388293 / 226c</v>
+        <v>2168538 / 145c</v>
       </c>
       <c r="Q40" s="156"/>
       <c r="R40" s="158"/>
@@ -34087,35 +34092,35 @@
       <c r="E41" s="157"/>
       <c r="F41" s="194">
         <f>+F39+F40</f>
-        <v>1169275.3121236446</v>
+        <v>355570.75429237908</v>
       </c>
       <c r="G41" s="195"/>
       <c r="H41" s="128"/>
       <c r="I41" s="37"/>
-      <c r="J41" s="313"/>
+      <c r="J41" s="315"/>
       <c r="K41" s="205">
         <f>'DCF input'!E98</f>
-        <v>8.2500000000000004E-2</v>
+        <v>0.08</v>
       </c>
       <c r="L41" s="207" t="str">
         <f>CONCATENATE(ROUND('DCF input'!F98,)," / ",ROUND('DCF input'!F107,0),"c")</f>
-        <v>1693774 / 113c</v>
+        <v>1275861 / 85c</v>
       </c>
       <c r="M41" s="208" t="str">
         <f>CONCATENATE(ROUND('DCF input'!G98,)," / ",ROUND('DCF input'!G107,0),"c")</f>
-        <v>1888503 / 126c</v>
+        <v>1360716 / 91c</v>
       </c>
       <c r="N41" s="208" t="str">
         <f>CONCATENATE(ROUND('DCF input'!H98,)," / ",ROUND('DCF input'!H107,0),"c")</f>
-        <v>2143147 / 143c</v>
+        <v>1459714 / 97c</v>
       </c>
       <c r="O41" s="208" t="str">
         <f>CONCATENATE(ROUND('DCF input'!I98,)," / ",ROUND('DCF input'!I107,0),"c")</f>
-        <v>2490390 / 166c</v>
+        <v>1576710 / 105c</v>
       </c>
       <c r="P41" s="207" t="str">
         <f>CONCATENATE(ROUND('DCF input'!J98,)," / ",ROUND('DCF input'!J107,0),"c")</f>
-        <v>2991963 / 200c</v>
+        <v>1717107 / 115c</v>
       </c>
       <c r="Q41" s="156"/>
       <c r="R41" s="156"/>
@@ -34133,35 +34138,35 @@
       <c r="E42" s="154"/>
       <c r="F42" s="196">
         <f>+F41/Assumptions!D17*100</f>
-        <v>7798.2880627160512</v>
+        <v>2371.4202633878822</v>
       </c>
       <c r="G42" s="198"/>
       <c r="H42" s="128"/>
       <c r="I42" s="37"/>
-      <c r="J42" s="314"/>
+      <c r="J42" s="316"/>
       <c r="K42" s="210">
         <f>'DCF input'!E99</f>
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="L42" s="211" t="str">
         <f>CONCATENATE(ROUND('DCF input'!F99,)," / ",ROUND('DCF input'!F108,0),"c")</f>
-        <v>1588652 / 106c</v>
+        <v>1104503 / 74c</v>
       </c>
       <c r="M42" s="211" t="str">
         <f>CONCATENATE(ROUND('DCF input'!G99,)," / ",ROUND('DCF input'!G108,0),"c")</f>
-        <v>1758407 / 117c</v>
+        <v>1166878 / 78c</v>
       </c>
       <c r="N42" s="211" t="str">
         <f>CONCATENATE(ROUND('DCF input'!H99,)," / ",ROUND('DCF input'!H108,0),"c")</f>
-        <v>1976663 / 132c</v>
+        <v>1238164 / 83c</v>
       </c>
       <c r="O42" s="211" t="str">
         <f>CONCATENATE(ROUND('DCF input'!I99,)," / ",ROUND('DCF input'!I108,0),"c")</f>
-        <v>2267671 / 151c</v>
+        <v>1320416 / 88c</v>
       </c>
       <c r="P42" s="211" t="str">
         <f>CONCATENATE(ROUND('DCF input'!J99,)," / ",ROUND('DCF input'!J108,0),"c")</f>
-        <v>2675082 / 178c</v>
+        <v>1416378 / 94c</v>
       </c>
       <c r="Q42" s="156"/>
       <c r="R42" s="156"/>
@@ -34178,7 +34183,7 @@
       <c r="E43" s="154"/>
       <c r="F43" s="199">
         <f>+F42/Assumptions!D16-1</f>
-        <v>37.797453048338561</v>
+        <v>10.798110763123791</v>
       </c>
       <c r="G43" s="198"/>
       <c r="H43" s="37"/>
